--- a/Code/Results/Cases/Case_6_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_42/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.470116417991164</v>
+        <v>1.011278393842815</v>
       </c>
       <c r="C2">
-        <v>0.2926018718019918</v>
+        <v>0.09812120689731074</v>
       </c>
       <c r="D2">
-        <v>0.003370347858226097</v>
+        <v>0.06807035254751526</v>
       </c>
       <c r="E2">
-        <v>0.02515929188555655</v>
+        <v>0.05161593203854942</v>
       </c>
       <c r="F2">
-        <v>1.947571036426353</v>
+        <v>0.953556803130688</v>
       </c>
       <c r="G2">
-        <v>0.000841540602781446</v>
+        <v>0.000834355287350208</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06082833341758009</v>
+        <v>0.07211239382576373</v>
       </c>
       <c r="K2">
-        <v>0.567105479567509</v>
+        <v>0.8127546036859314</v>
       </c>
       <c r="L2">
-        <v>0.157875789687786</v>
+        <v>0.1362814605940628</v>
       </c>
       <c r="M2">
-        <v>0.4243589157256125</v>
+        <v>0.2085858726958953</v>
       </c>
       <c r="N2">
-        <v>1.464435988374383</v>
+        <v>1.234139288567038</v>
       </c>
       <c r="O2">
-        <v>1.410973830773855</v>
+        <v>2.528496366240262</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.182146510825532</v>
+        <v>0.8878224832278647</v>
       </c>
       <c r="C3">
-        <v>0.2533510384093631</v>
+        <v>0.09513677037087831</v>
       </c>
       <c r="D3">
-        <v>0.003052621500317265</v>
+        <v>0.06189504609213259</v>
       </c>
       <c r="E3">
-        <v>0.02529302877575712</v>
+        <v>0.05101947828209674</v>
       </c>
       <c r="F3">
-        <v>1.866153100380473</v>
+        <v>0.9404449909207884</v>
       </c>
       <c r="G3">
-        <v>0.0008483731468308888</v>
+        <v>0.0008379454285728028</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06211491186267759</v>
+        <v>0.07368525895098976</v>
       </c>
       <c r="K3">
-        <v>0.4963245612742924</v>
+        <v>0.7066378421137358</v>
       </c>
       <c r="L3">
-        <v>0.1457385050672073</v>
+        <v>0.1258344466065751</v>
       </c>
       <c r="M3">
-        <v>0.3781855900597577</v>
+        <v>0.1852954345194249</v>
       </c>
       <c r="N3">
-        <v>1.52215840653853</v>
+        <v>1.283507084630505</v>
       </c>
       <c r="O3">
-        <v>1.352119294001511</v>
+        <v>2.515680596139873</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.008060670092931</v>
+        <v>0.8124562435345979</v>
       </c>
       <c r="C4">
-        <v>0.2294521051501448</v>
+        <v>0.09330464158755092</v>
       </c>
       <c r="D4">
-        <v>0.002864557839226123</v>
+        <v>0.05814463020397653</v>
       </c>
       <c r="E4">
-        <v>0.02538484301930999</v>
+        <v>0.05069852714049716</v>
       </c>
       <c r="F4">
-        <v>1.819409275843853</v>
+        <v>0.933694095743725</v>
       </c>
       <c r="G4">
-        <v>0.0008526982800719584</v>
+        <v>0.000840228016487098</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06293303892575897</v>
+        <v>0.07470557820728807</v>
       </c>
       <c r="K4">
-        <v>0.4534591388585909</v>
+        <v>0.6416641559382867</v>
       </c>
       <c r="L4">
-        <v>0.138463008386644</v>
+        <v>0.1195240810492066</v>
       </c>
       <c r="M4">
-        <v>0.3503137286978344</v>
+        <v>0.1711099490714787</v>
       </c>
       <c r="N4">
-        <v>1.559333430458175</v>
+        <v>1.315051300209014</v>
       </c>
       <c r="O4">
-        <v>1.318436412835126</v>
+        <v>2.51144418821896</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.937737442621085</v>
+        <v>0.7818422998533094</v>
       </c>
       <c r="C5">
-        <v>0.2197546079812156</v>
+        <v>0.09255791552963899</v>
       </c>
       <c r="D5">
-        <v>0.002789382540440144</v>
+        <v>0.0566261732088762</v>
       </c>
       <c r="E5">
-        <v>0.02542464582141957</v>
+        <v>0.05057889227190238</v>
       </c>
       <c r="F5">
-        <v>1.801128008583746</v>
+        <v>0.9312591970023334</v>
       </c>
       <c r="G5">
-        <v>0.0008544943985575168</v>
+        <v>0.0008411781350834013</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06327352156223487</v>
+        <v>0.0751349488248545</v>
       </c>
       <c r="K5">
-        <v>0.4361240228474443</v>
+        <v>0.6152238845301383</v>
       </c>
       <c r="L5">
-        <v>0.1355396968189737</v>
+        <v>0.1169775255412659</v>
       </c>
       <c r="M5">
-        <v>0.3390651562900757</v>
+        <v>0.1653558950006158</v>
       </c>
       <c r="N5">
-        <v>1.574905612753128</v>
+        <v>1.32821038063093</v>
       </c>
       <c r="O5">
-        <v>1.305289300491609</v>
+        <v>2.510601605676456</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.926095758278677</v>
+        <v>0.776764502884447</v>
       </c>
       <c r="C6">
-        <v>0.2181465995501668</v>
+        <v>0.09243390945003682</v>
       </c>
       <c r="D6">
-        <v>0.002776979743517316</v>
+        <v>0.05637461630682594</v>
       </c>
       <c r="E6">
-        <v>0.02543139785885162</v>
+        <v>0.05055969423497153</v>
       </c>
       <c r="F6">
-        <v>1.798137377125997</v>
+        <v>0.9308736744133839</v>
       </c>
       <c r="G6">
-        <v>0.0008547946974841967</v>
+        <v>0.0008413371139739107</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06333048682996378</v>
+        <v>0.07520706181822234</v>
       </c>
       <c r="K6">
-        <v>0.4332531035232066</v>
+        <v>0.6108354846031858</v>
       </c>
       <c r="L6">
-        <v>0.1350567077235567</v>
+        <v>0.1165561455520816</v>
       </c>
       <c r="M6">
-        <v>0.3372036430816294</v>
+        <v>0.1644019842754929</v>
       </c>
       <c r="N6">
-        <v>1.577516556613766</v>
+        <v>1.330413680264728</v>
       </c>
       <c r="O6">
-        <v>1.30314013157345</v>
+        <v>2.510514232606667</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.007109850096128</v>
+        <v>0.8120429892116476</v>
       </c>
       <c r="C7">
-        <v>0.2293211647823483</v>
+        <v>0.09329457171515543</v>
       </c>
       <c r="D7">
-        <v>0.002863538458127479</v>
+        <v>0.05812411245570104</v>
       </c>
       <c r="E7">
-        <v>0.02538537020984144</v>
+        <v>0.05069686883075342</v>
       </c>
       <c r="F7">
-        <v>1.819159684591966</v>
+        <v>0.9336599915792902</v>
       </c>
       <c r="G7">
-        <v>0.0008527223659474101</v>
+        <v>0.0008402407489573221</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06293760207961663</v>
+        <v>0.07471131403682563</v>
       </c>
       <c r="K7">
-        <v>0.4532248344206238</v>
+        <v>0.6413074346019698</v>
       </c>
       <c r="L7">
-        <v>0.1384234192657985</v>
+        <v>0.1194896377768941</v>
       </c>
       <c r="M7">
-        <v>0.3501615973420726</v>
+        <v>0.1710322428960147</v>
       </c>
       <c r="N7">
-        <v>1.559541745637155</v>
+        <v>1.315227541836757</v>
       </c>
       <c r="O7">
-        <v>1.318256810757667</v>
+        <v>2.511429284623134</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.370215537032607</v>
+        <v>0.9686132691978742</v>
       </c>
       <c r="C8">
-        <v>0.2790207318163027</v>
+        <v>0.09709197918380141</v>
       </c>
       <c r="D8">
-        <v>0.003259146118317346</v>
+        <v>0.06593223333540976</v>
       </c>
       <c r="E8">
-        <v>0.02520335884244829</v>
+        <v>0.05140073689349656</v>
       </c>
       <c r="F8">
-        <v>1.918793453902992</v>
+        <v>0.948759479383213</v>
       </c>
       <c r="G8">
-        <v>0.0008438700708893101</v>
+        <v>0.0008355771008845447</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06126610529224674</v>
+        <v>0.07264330461950763</v>
       </c>
       <c r="K8">
-        <v>0.542566515570698</v>
+        <v>0.7761221865305572</v>
       </c>
       <c r="L8">
-        <v>0.1536523034348249</v>
+        <v>0.1326569608361723</v>
       </c>
       <c r="M8">
-        <v>0.4083321521907379</v>
+        <v>0.2005300752185342</v>
       </c>
       <c r="N8">
-        <v>1.483970987028734</v>
+        <v>1.250902317121875</v>
       </c>
       <c r="O8">
-        <v>1.39014765306969</v>
+        <v>2.523305293059707</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.107268518344824</v>
+        <v>1.279659370893171</v>
       </c>
       <c r="C9">
-        <v>0.3785275684995213</v>
+        <v>0.1045514002798313</v>
       </c>
       <c r="D9">
-        <v>0.004106076473139986</v>
+        <v>0.08159591280334411</v>
       </c>
       <c r="E9">
-        <v>0.02492599679921237</v>
+        <v>0.05315120827902398</v>
       </c>
       <c r="F9">
-        <v>2.142352899767417</v>
+        <v>0.9891920314976232</v>
       </c>
       <c r="G9">
-        <v>0.0008274968059275413</v>
+        <v>0.0008270393606537681</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05821132912311366</v>
+        <v>0.06902751616388869</v>
       </c>
       <c r="K9">
-        <v>0.7232976953125529</v>
+        <v>1.042375036944776</v>
       </c>
       <c r="L9">
-        <v>0.1850649453531616</v>
+        <v>0.1593635509086369</v>
       </c>
       <c r="M9">
-        <v>0.5267424252205188</v>
+        <v>0.2593973271949324</v>
       </c>
       <c r="N9">
-        <v>1.350149596120779</v>
+        <v>1.134783930980539</v>
       </c>
       <c r="O9">
-        <v>1.552465750248857</v>
+        <v>2.576824778993199</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.669153295942806</v>
+        <v>1.511461765830433</v>
       </c>
       <c r="C10">
-        <v>0.4535733349040925</v>
+        <v>0.1100552754240738</v>
       </c>
       <c r="D10">
-        <v>0.004796191529806038</v>
+        <v>0.09335584112009343</v>
       </c>
       <c r="E10">
-        <v>0.02477485781655053</v>
+        <v>0.05467913004970981</v>
       </c>
       <c r="F10">
-        <v>2.327454610636792</v>
+        <v>1.02624376090624</v>
       </c>
       <c r="G10">
-        <v>0.0008160007427567421</v>
+        <v>0.0008211180463847835</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05610220456934734</v>
+        <v>0.06664840626799773</v>
       </c>
       <c r="K10">
-        <v>0.86070412453914</v>
+        <v>1.239794374957768</v>
       </c>
       <c r="L10">
-        <v>0.2093107804899574</v>
+        <v>0.1796133586672255</v>
       </c>
       <c r="M10">
-        <v>0.6172081852082485</v>
+        <v>0.3034358549703313</v>
       </c>
       <c r="N10">
-        <v>1.261531377363326</v>
+        <v>1.055937040698169</v>
       </c>
       <c r="O10">
-        <v>1.687576937553516</v>
+        <v>2.636642759677727</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.930465365623661</v>
+        <v>1.617823513025769</v>
       </c>
       <c r="C11">
-        <v>0.4883070117058423</v>
+        <v>0.1125680514622545</v>
       </c>
       <c r="D11">
-        <v>0.00513131756777252</v>
+        <v>0.09876921256812921</v>
       </c>
       <c r="E11">
-        <v>0.02471862088619337</v>
+        <v>0.05543053082540617</v>
       </c>
       <c r="F11">
-        <v>2.417101780635917</v>
+        <v>1.04487087337165</v>
       </c>
       <c r="G11">
-        <v>0.0008108701258700141</v>
+        <v>0.0008184961638984733</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05517189973525971</v>
+        <v>0.06562853586627426</v>
       </c>
       <c r="K11">
-        <v>0.9245284276034766</v>
+        <v>1.330153395255564</v>
       </c>
       <c r="L11">
-        <v>0.2206493916658729</v>
+        <v>0.1889829607665021</v>
       </c>
       <c r="M11">
-        <v>0.6593214550482642</v>
+        <v>0.3236806892059079</v>
       </c>
       <c r="N11">
-        <v>1.223557209511995</v>
+        <v>1.021554949449367</v>
       </c>
       <c r="O11">
-        <v>1.753192510427112</v>
+        <v>2.668793850910788</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.030355670645633</v>
+        <v>1.658248409125605</v>
       </c>
       <c r="C12">
-        <v>0.5015613481629373</v>
+        <v>0.113521210817531</v>
       </c>
       <c r="D12">
-        <v>0.005261896338578431</v>
+        <v>0.1008290305948947</v>
       </c>
       <c r="E12">
-        <v>0.02469923233944593</v>
+        <v>0.05572349979405189</v>
       </c>
       <c r="F12">
-        <v>2.451916300114348</v>
+        <v>1.052194891463273</v>
       </c>
       <c r="G12">
-        <v>0.0008089400175310394</v>
+        <v>0.0008175132645595881</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05482379782792535</v>
+        <v>0.0652515107558802</v>
       </c>
       <c r="K12">
-        <v>0.948915182483006</v>
+        <v>1.364462909320878</v>
       </c>
       <c r="L12">
-        <v>0.2249925477138532</v>
+        <v>0.1925555051279986</v>
       </c>
       <c r="M12">
-        <v>0.6754255657832218</v>
+        <v>0.3313806965920776</v>
       </c>
       <c r="N12">
-        <v>1.209535874599908</v>
+        <v>1.008756609751599</v>
       </c>
       <c r="O12">
-        <v>1.778702370848706</v>
+        <v>2.681722237428545</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.008798848335232</v>
+        <v>1.649535324953348</v>
       </c>
       <c r="C13">
-        <v>0.4987020063221621</v>
+        <v>0.1133158531014402</v>
       </c>
       <c r="D13">
-        <v>0.00523359955105196</v>
+        <v>0.1003849599019446</v>
       </c>
       <c r="E13">
-        <v>0.0247033213180412</v>
+        <v>0.05566002333728015</v>
       </c>
       <c r="F13">
-        <v>2.444378370921925</v>
+        <v>1.050605252416744</v>
       </c>
       <c r="G13">
-        <v>0.0008093551593634845</v>
+        <v>0.000817724513039804</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05489858181585117</v>
+        <v>0.06533229828745846</v>
       </c>
       <c r="K13">
-        <v>0.9436528839854645</v>
+        <v>1.35706940805963</v>
       </c>
       <c r="L13">
-        <v>0.2240548856593279</v>
+        <v>0.1917849754934693</v>
       </c>
       <c r="M13">
-        <v>0.6719499686792929</v>
+        <v>0.3297208070007898</v>
       </c>
       <c r="N13">
-        <v>1.212539287160268</v>
+        <v>1.011502985028082</v>
       </c>
       <c r="O13">
-        <v>1.773177777756658</v>
+        <v>2.678903650513377</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.938663911576782</v>
+        <v>1.621146227997713</v>
       </c>
       <c r="C14">
-        <v>0.4893953236649509</v>
+        <v>0.1126464339078908</v>
       </c>
       <c r="D14">
-        <v>0.005141982831930569</v>
+        <v>0.09893847245616882</v>
       </c>
       <c r="E14">
-        <v>0.02471698688820601</v>
+        <v>0.05545446266535059</v>
       </c>
       <c r="F14">
-        <v>2.419948100603165</v>
+        <v>1.045467914494665</v>
       </c>
       <c r="G14">
-        <v>0.0008107110882169399</v>
+        <v>0.0008184151029382693</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05514317736205321</v>
+        <v>0.06559733263243572</v>
       </c>
       <c r="K14">
-        <v>0.9265302006764102</v>
+        <v>1.332974127012648</v>
       </c>
       <c r="L14">
-        <v>0.2210056836706968</v>
+        <v>0.1892763749385722</v>
       </c>
       <c r="M14">
-        <v>0.6606430949722011</v>
+        <v>0.3243134777073706</v>
       </c>
       <c r="N14">
-        <v>1.222396341325094</v>
+        <v>1.020497538716366</v>
       </c>
       <c r="O14">
-        <v>1.755277541778028</v>
+        <v>2.669842119370003</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.895829930041998</v>
+        <v>1.603776874176674</v>
       </c>
       <c r="C15">
-        <v>0.4837084239336775</v>
+        <v>0.1122366171834628</v>
       </c>
       <c r="D15">
-        <v>0.005086363469161803</v>
+        <v>0.09805376772401075</v>
       </c>
       <c r="E15">
-        <v>0.02472560925274925</v>
+        <v>0.05532965869106121</v>
       </c>
       <c r="F15">
-        <v>2.405099424156475</v>
+        <v>1.04235682930414</v>
       </c>
       <c r="G15">
-        <v>0.000811543247118629</v>
+        <v>0.0008188393938642524</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05529354391118435</v>
+        <v>0.06576087531324681</v>
       </c>
       <c r="K15">
-        <v>0.9160713305901425</v>
+        <v>1.318227525107545</v>
       </c>
       <c r="L15">
-        <v>0.2191445596951809</v>
+        <v>0.1877430273569445</v>
       </c>
       <c r="M15">
-        <v>0.6537383063251596</v>
+        <v>0.3210058269411675</v>
       </c>
       <c r="N15">
-        <v>1.228481483178101</v>
+        <v>1.026036035623212</v>
       </c>
       <c r="O15">
-        <v>1.744401488538259</v>
+        <v>2.664391121581843</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.652200471389676</v>
+        <v>1.504530557120233</v>
       </c>
       <c r="C16">
-        <v>0.4513167000668261</v>
+        <v>0.109891268684791</v>
       </c>
       <c r="D16">
-        <v>0.004774768286027964</v>
+        <v>0.09300340807308061</v>
       </c>
       <c r="E16">
-        <v>0.0247787937364965</v>
+        <v>0.05463118557653601</v>
       </c>
       <c r="F16">
-        <v>2.321712508414009</v>
+        <v>1.025063398148617</v>
       </c>
       <c r="G16">
-        <v>0.0008163379085201994</v>
+        <v>0.0008212908054427535</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05616358809950039</v>
+        <v>0.06671633005265321</v>
       </c>
       <c r="K16">
-        <v>0.8565619311192307</v>
+        <v>1.233901410608098</v>
       </c>
       <c r="L16">
-        <v>0.2085764131544465</v>
+        <v>0.1790043592221409</v>
       </c>
       <c r="M16">
-        <v>0.6144768557078351</v>
+        <v>0.302117341657528</v>
       </c>
       <c r="N16">
-        <v>1.264061997662452</v>
+        <v>1.058214541029574</v>
       </c>
       <c r="O16">
-        <v>1.683377818526552</v>
+        <v>2.634644634536642</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.504282739606992</v>
+        <v>1.443891655267237</v>
       </c>
       <c r="C17">
-        <v>0.4316086000800397</v>
+        <v>0.1084550111444642</v>
       </c>
       <c r="D17">
-        <v>0.004589461465728917</v>
+        <v>0.08992200102278503</v>
       </c>
       <c r="E17">
-        <v>0.02481469831648786</v>
+        <v>0.05421735271660033</v>
       </c>
       <c r="F17">
-        <v>2.272008897314905</v>
+        <v>1.014919046943461</v>
       </c>
       <c r="G17">
-        <v>0.0008193036168217862</v>
+        <v>0.0008228127896295476</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05670479235455783</v>
+        <v>0.06731859434722409</v>
       </c>
       <c r="K17">
-        <v>0.8204116013988028</v>
+        <v>1.182320515252798</v>
       </c>
       <c r="L17">
-        <v>0.2021757782990932</v>
+        <v>0.1736851320664314</v>
       </c>
       <c r="M17">
-        <v>0.5906498098383466</v>
+        <v>0.2905863264211135</v>
       </c>
       <c r="N17">
-        <v>1.286503677399729</v>
+        <v>1.0783409222422</v>
       </c>
       <c r="O17">
-        <v>1.647049947738751</v>
+        <v>2.617691129435997</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.41973400015047</v>
+        <v>1.409098702842385</v>
       </c>
       <c r="C18">
-        <v>0.4203279788144698</v>
+        <v>0.1076297431387871</v>
       </c>
       <c r="D18">
-        <v>0.004484830036363796</v>
+        <v>0.08815560868220729</v>
       </c>
       <c r="E18">
-        <v>0.02483652059358699</v>
+        <v>0.0539846093841394</v>
       </c>
       <c r="F18">
-        <v>2.24392753325769</v>
+        <v>1.00925009784256</v>
       </c>
       <c r="G18">
-        <v>0.0008210188295090874</v>
+        <v>0.0008236949715308869</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0570188225678594</v>
+        <v>0.06767086113512555</v>
       </c>
       <c r="K18">
-        <v>0.7997410254887427</v>
+        <v>1.152703664219558</v>
       </c>
       <c r="L18">
-        <v>0.1985230634563564</v>
+        <v>0.1706403990103453</v>
       </c>
       <c r="M18">
-        <v>0.5770342528265999</v>
+        <v>0.2839736864280553</v>
       </c>
       <c r="N18">
-        <v>1.299630199131364</v>
+        <v>1.090056438151025</v>
       </c>
       <c r="O18">
-        <v>1.626541703822284</v>
+        <v>2.608402117536741</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.391194858159679</v>
+        <v>1.397332506782902</v>
       </c>
       <c r="C19">
-        <v>0.4165175360356557</v>
+        <v>0.1073504545168689</v>
       </c>
       <c r="D19">
-        <v>0.004449721185154409</v>
+        <v>0.08755853928124679</v>
       </c>
       <c r="E19">
-        <v>0.02484410731675646</v>
+        <v>0.05390670406224274</v>
       </c>
       <c r="F19">
-        <v>2.234504283621632</v>
+        <v>1.007358710801768</v>
       </c>
       <c r="G19">
-        <v>0.0008216012312851789</v>
+        <v>0.0008239948378913808</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05712561926344772</v>
+        <v>0.06779113308172313</v>
       </c>
       <c r="K19">
-        <v>0.7927624810854326</v>
+        <v>1.142684300576775</v>
       </c>
       <c r="L19">
-        <v>0.1972911115087399</v>
+        <v>0.1696119849408291</v>
       </c>
       <c r="M19">
-        <v>0.5724390278906171</v>
+        <v>0.2817380452481117</v>
       </c>
       <c r="N19">
-        <v>1.304111525217671</v>
+        <v>1.094046815930593</v>
       </c>
       <c r="O19">
-        <v>1.619662472889019</v>
+        <v>2.605335129546205</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.519973214872323</v>
+        <v>1.450337861983115</v>
       </c>
       <c r="C20">
-        <v>0.4337007634125882</v>
+        <v>0.1086078151011307</v>
       </c>
       <c r="D20">
-        <v>0.004608981382549615</v>
+        <v>0.09024940096992395</v>
       </c>
       <c r="E20">
-        <v>0.02481075429792567</v>
+        <v>0.05426085690970162</v>
       </c>
       <c r="F20">
-        <v>2.27724689196215</v>
+        <v>1.015981660125718</v>
       </c>
       <c r="G20">
-        <v>0.0008189869480523884</v>
+        <v>0.0008226500730328052</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05664689630960229</v>
+        <v>0.06725387432134156</v>
       </c>
       <c r="K20">
-        <v>0.8242470281556109</v>
+        <v>1.187806006984488</v>
       </c>
       <c r="L20">
-        <v>0.2028541253060183</v>
+        <v>0.1742498342275454</v>
       </c>
       <c r="M20">
-        <v>0.5931768855304114</v>
+        <v>0.2918117609890061</v>
       </c>
       <c r="N20">
-        <v>1.284091937112386</v>
+        <v>1.076183957320413</v>
       </c>
       <c r="O20">
-        <v>1.650876648074544</v>
+        <v>2.619447719563823</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.959237823812146</v>
+        <v>1.629480638925372</v>
       </c>
       <c r="C21">
-        <v>0.4921260335553939</v>
+        <v>0.1128430116938546</v>
       </c>
       <c r="D21">
-        <v>0.005168787747863668</v>
+        <v>0.09936306639097836</v>
       </c>
       <c r="E21">
-        <v>0.02471292028933902</v>
+        <v>0.05551460932515084</v>
       </c>
       <c r="F21">
-        <v>2.427099615740758</v>
+        <v>1.046969409875217</v>
       </c>
       <c r="G21">
-        <v>0.0008103124858291494</v>
+        <v>0.0008182119929571566</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05507122021593158</v>
+        <v>0.06551923484822808</v>
       </c>
       <c r="K21">
-        <v>0.9315533934825737</v>
+        <v>1.340048875105197</v>
       </c>
       <c r="L21">
-        <v>0.2218999230196346</v>
+        <v>0.1900125326189368</v>
       </c>
       <c r="M21">
-        <v>0.663959785820019</v>
+        <v>0.3259007985032696</v>
       </c>
       <c r="N21">
-        <v>1.219491161779445</v>
+        <v>1.0178495469283</v>
       </c>
       <c r="O21">
-        <v>1.760516734639367</v>
+        <v>2.67248290412644</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.251847596486755</v>
+        <v>1.747432049481887</v>
       </c>
       <c r="C22">
-        <v>0.5309102871272842</v>
+        <v>0.1156206046928077</v>
       </c>
       <c r="D22">
-        <v>0.005556423573350067</v>
+        <v>0.1053774013478375</v>
       </c>
       <c r="E22">
-        <v>0.02466015761455798</v>
+        <v>0.0563833106768783</v>
       </c>
       <c r="F22">
-        <v>2.530136632416088</v>
+        <v>1.068805330308678</v>
       </c>
       <c r="G22">
-        <v>0.0008047167115897702</v>
+        <v>0.000815369265681249</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05406581089309537</v>
+        <v>0.06443914616691515</v>
       </c>
       <c r="K22">
-        <v>1.002969642516661</v>
+        <v>1.440094392371833</v>
       </c>
       <c r="L22">
-        <v>0.234638511384631</v>
+        <v>0.2004579613346777</v>
       </c>
       <c r="M22">
-        <v>0.7111441348923577</v>
+        <v>0.3483782476450514</v>
       </c>
       <c r="N22">
-        <v>1.179373489290228</v>
+        <v>0.9810191541184796</v>
       </c>
       <c r="O22">
-        <v>1.836070850368117</v>
+        <v>2.711558298735298</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.095129101104362</v>
+        <v>1.684393654659686</v>
       </c>
       <c r="C23">
-        <v>0.5101497954125591</v>
+        <v>0.1141371530993993</v>
       </c>
       <c r="D23">
-        <v>0.005347312559193185</v>
+        <v>0.1021618753509728</v>
       </c>
       <c r="E23">
-        <v>0.02468725580192377</v>
+        <v>0.05591504383386514</v>
       </c>
       <c r="F23">
-        <v>2.474647045827652</v>
+        <v>1.05700080165073</v>
       </c>
       <c r="G23">
-        <v>0.0008076970885279647</v>
+        <v>0.0008168813193401373</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05460018781292941</v>
+        <v>0.0650106346565682</v>
       </c>
       <c r="K23">
-        <v>0.9647256565798443</v>
+        <v>1.386643676921892</v>
       </c>
       <c r="L23">
-        <v>0.2278112588059287</v>
+        <v>0.1948692824532969</v>
       </c>
       <c r="M23">
-        <v>0.6858697617214844</v>
+        <v>0.3363623123427786</v>
       </c>
       <c r="N23">
-        <v>1.200584633371697</v>
+        <v>1.000555086307337</v>
       </c>
       <c r="O23">
-        <v>1.795366074254588</v>
+        <v>2.690284165184977</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.512878029873264</v>
+        <v>1.44742331775268</v>
       </c>
       <c r="C24">
-        <v>0.4327547423466456</v>
+        <v>0.1085387310378039</v>
       </c>
       <c r="D24">
-        <v>0.004600150543971004</v>
+        <v>0.09010136746868369</v>
       </c>
       <c r="E24">
-        <v>0.02481253372040282</v>
+        <v>0.05424117257056871</v>
       </c>
       <c r="F24">
-        <v>2.274877262448413</v>
+        <v>1.015500745618297</v>
       </c>
       <c r="G24">
-        <v>0.0008191300822126426</v>
+        <v>0.000822723614848322</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05667306212591949</v>
+        <v>0.06728311551864863</v>
       </c>
       <c r="K24">
-        <v>0.8225126827020119</v>
+        <v>1.185325899750552</v>
       </c>
       <c r="L24">
-        <v>0.2025473606018835</v>
+        <v>0.1739944908954243</v>
       </c>
       <c r="M24">
-        <v>0.5920341376937515</v>
+        <v>0.2912576902700721</v>
       </c>
       <c r="N24">
-        <v>1.285181587287127</v>
+        <v>1.077158671373709</v>
       </c>
       <c r="O24">
-        <v>1.649145427035421</v>
+        <v>2.618652142503464</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.904697472891428</v>
+        <v>1.19500085273944</v>
       </c>
       <c r="C25">
-        <v>0.3513218804002065</v>
+        <v>0.102530521664896</v>
       </c>
       <c r="D25">
-        <v>0.003867002322316182</v>
+        <v>0.07731707032533564</v>
       </c>
       <c r="E25">
-        <v>0.02499211834790538</v>
+        <v>0.05263641100634153</v>
       </c>
       <c r="F25">
-        <v>2.078498083074308</v>
+        <v>0.9770206784625159</v>
       </c>
       <c r="G25">
-        <v>0.0008318273106094665</v>
+        <v>0.000829285909320748</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05901392649709569</v>
+        <v>0.06995768208665964</v>
       </c>
       <c r="K25">
-        <v>0.6736905405424167</v>
+        <v>0.9700798304409375</v>
       </c>
       <c r="L25">
-        <v>0.1763793663875148</v>
+        <v>0.1520350696425652</v>
       </c>
       <c r="M25">
-        <v>0.4941641398578156</v>
+        <v>0.2433462447674302</v>
       </c>
       <c r="N25">
-        <v>1.384721674264284</v>
+        <v>1.165088644982314</v>
       </c>
       <c r="O25">
-        <v>1.50599148210064</v>
+        <v>2.558903766070188</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.011278393842815</v>
+        <v>0.8543958151015545</v>
       </c>
       <c r="C2">
-        <v>0.09812120689731074</v>
+        <v>0.1264743139504176</v>
       </c>
       <c r="D2">
-        <v>0.06807035254751526</v>
+        <v>0.1002050421705007</v>
       </c>
       <c r="E2">
-        <v>0.05161593203854942</v>
+        <v>0.05805745918266325</v>
       </c>
       <c r="F2">
-        <v>0.953556803130688</v>
+        <v>0.6465324893956108</v>
       </c>
       <c r="G2">
-        <v>0.000834355287350208</v>
+        <v>0.3989313525819895</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.006922796117097896</v>
       </c>
       <c r="J2">
-        <v>0.07211239382576373</v>
+        <v>0.3619136008085491</v>
       </c>
       <c r="K2">
-        <v>0.8127546036859314</v>
+        <v>0.4000366046145878</v>
       </c>
       <c r="L2">
-        <v>0.1362814605940628</v>
+        <v>0.06789650942340231</v>
       </c>
       <c r="M2">
-        <v>0.2085858726958953</v>
+        <v>0.7521334185456681</v>
       </c>
       <c r="N2">
-        <v>1.234139288567038</v>
+        <v>0.1533726106472528</v>
       </c>
       <c r="O2">
-        <v>2.528496366240262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1901912380182971</v>
+      </c>
+      <c r="P2">
+        <v>1.005207000362704</v>
+      </c>
+      <c r="Q2">
+        <v>1.549780397460367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8878224832278647</v>
+        <v>0.7451458003755533</v>
       </c>
       <c r="C3">
-        <v>0.09513677037087831</v>
+        <v>0.1204838193846243</v>
       </c>
       <c r="D3">
-        <v>0.06189504609213259</v>
+        <v>0.09216255043282473</v>
       </c>
       <c r="E3">
-        <v>0.05101947828209674</v>
+        <v>0.05732142869466017</v>
       </c>
       <c r="F3">
-        <v>0.9404449909207884</v>
+        <v>0.6380106962797143</v>
       </c>
       <c r="G3">
-        <v>0.0008379454285728028</v>
+        <v>0.3950118567698198</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.008838386839781442</v>
       </c>
       <c r="J3">
-        <v>0.07368525895098976</v>
+        <v>0.3643744884650175</v>
       </c>
       <c r="K3">
-        <v>0.7066378421137358</v>
+        <v>0.4040228582108689</v>
       </c>
       <c r="L3">
-        <v>0.1258344466065751</v>
+        <v>0.06900392904066877</v>
       </c>
       <c r="M3">
-        <v>0.1852954345194249</v>
+        <v>0.6557521684740522</v>
       </c>
       <c r="N3">
-        <v>1.283507084630505</v>
+        <v>0.1417701717158621</v>
       </c>
       <c r="O3">
-        <v>2.515680596139873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1677165351231409</v>
+      </c>
+      <c r="P3">
+        <v>1.035717196248221</v>
+      </c>
+      <c r="Q3">
+        <v>1.546346585827891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8124562435345979</v>
+        <v>0.6778024637679607</v>
       </c>
       <c r="C4">
-        <v>0.09330464158755092</v>
+        <v>0.1168275579437861</v>
       </c>
       <c r="D4">
-        <v>0.05814463020397653</v>
+        <v>0.0872950542752875</v>
       </c>
       <c r="E4">
-        <v>0.05069852714049716</v>
+        <v>0.05690660992089924</v>
       </c>
       <c r="F4">
-        <v>0.933694095743725</v>
+        <v>0.6333952001325329</v>
       </c>
       <c r="G4">
-        <v>0.000840228016487098</v>
+        <v>0.3930390276545026</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01022166182560724</v>
       </c>
       <c r="J4">
-        <v>0.07470557820728807</v>
+        <v>0.3661812822978092</v>
       </c>
       <c r="K4">
-        <v>0.6416641559382867</v>
+        <v>0.4067795066938409</v>
       </c>
       <c r="L4">
-        <v>0.1195240810492066</v>
+        <v>0.06971128983951314</v>
       </c>
       <c r="M4">
-        <v>0.1711099490714787</v>
+        <v>0.5964881118184024</v>
       </c>
       <c r="N4">
-        <v>1.315051300209014</v>
+        <v>0.1348278879288571</v>
       </c>
       <c r="O4">
-        <v>2.51144418821896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1539413792796367</v>
+      </c>
+      <c r="P4">
+        <v>1.055208660620929</v>
+      </c>
+      <c r="Q4">
+        <v>1.545769464166156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7818422998533094</v>
+        <v>0.6497345978416718</v>
       </c>
       <c r="C5">
-        <v>0.09255791552963899</v>
+        <v>0.1154755685917408</v>
       </c>
       <c r="D5">
-        <v>0.0566261732088762</v>
+        <v>0.0853451012972215</v>
       </c>
       <c r="E5">
-        <v>0.05057889227190238</v>
+        <v>0.05673074911644171</v>
       </c>
       <c r="F5">
-        <v>0.9312591970023334</v>
+        <v>0.6313583640744582</v>
       </c>
       <c r="G5">
-        <v>0.0008411781350834013</v>
+        <v>0.3920837999677005</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01091986489605556</v>
       </c>
       <c r="J5">
-        <v>0.0751349488248545</v>
+        <v>0.3668578817277677</v>
       </c>
       <c r="K5">
-        <v>0.6152238845301383</v>
+        <v>0.4077400560360509</v>
       </c>
       <c r="L5">
-        <v>0.1169775255412659</v>
+        <v>0.06999134923917705</v>
       </c>
       <c r="M5">
-        <v>0.1653558950006158</v>
+        <v>0.5723231529706823</v>
       </c>
       <c r="N5">
-        <v>1.32821038063093</v>
+        <v>0.1321574718735121</v>
       </c>
       <c r="O5">
-        <v>2.510601605676456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1483029430893517</v>
+      </c>
+      <c r="P5">
+        <v>1.063344356657741</v>
+      </c>
+      <c r="Q5">
+        <v>1.545086364183206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.776764502884447</v>
+        <v>0.6443875899019815</v>
       </c>
       <c r="C6">
-        <v>0.09243390945003682</v>
+        <v>0.1154156825446293</v>
       </c>
       <c r="D6">
-        <v>0.05637461630682594</v>
+        <v>0.08504242764384173</v>
       </c>
       <c r="E6">
-        <v>0.05055969423497153</v>
+        <v>0.05668248825049993</v>
       </c>
       <c r="F6">
-        <v>0.9308736744133839</v>
+        <v>0.6306535133415139</v>
       </c>
       <c r="G6">
-        <v>0.0008413371139739107</v>
+        <v>0.3916171764815886</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01114876328701797</v>
       </c>
       <c r="J6">
-        <v>0.07520706181822234</v>
+        <v>0.3668123331611213</v>
       </c>
       <c r="K6">
-        <v>0.6108354846031858</v>
+        <v>0.4076120298845787</v>
       </c>
       <c r="L6">
-        <v>0.1165561455520816</v>
+        <v>0.07001989326503733</v>
       </c>
       <c r="M6">
-        <v>0.1644019842754929</v>
+        <v>0.5683217608370228</v>
       </c>
       <c r="N6">
-        <v>1.330413680264728</v>
+        <v>0.1318570619284785</v>
       </c>
       <c r="O6">
-        <v>2.510514232606667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1473299607450365</v>
+      </c>
+      <c r="P6">
+        <v>1.064714569863749</v>
+      </c>
+      <c r="Q6">
+        <v>1.543988877096183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8120429892116476</v>
+        <v>0.6755545762730151</v>
       </c>
       <c r="C7">
-        <v>0.09329457171515543</v>
+        <v>0.1172598780767089</v>
       </c>
       <c r="D7">
-        <v>0.05812411245570104</v>
+        <v>0.08732353825288897</v>
       </c>
       <c r="E7">
-        <v>0.05069686883075342</v>
+        <v>0.05685068218927647</v>
       </c>
       <c r="F7">
-        <v>0.9336599915792902</v>
+        <v>0.6323420586747943</v>
       </c>
       <c r="G7">
-        <v>0.0008402407489573221</v>
+        <v>0.3921680245198687</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01051471783310998</v>
       </c>
       <c r="J7">
-        <v>0.07471131403682563</v>
+        <v>0.3657479292022998</v>
       </c>
       <c r="K7">
-        <v>0.6413074346019698</v>
+        <v>0.4059958414518086</v>
       </c>
       <c r="L7">
-        <v>0.1194896377768941</v>
+        <v>0.06966522877035075</v>
       </c>
       <c r="M7">
-        <v>0.1710322428960147</v>
+        <v>0.5961969230278328</v>
       </c>
       <c r="N7">
-        <v>1.315227541836757</v>
+        <v>0.135175169182034</v>
       </c>
       <c r="O7">
-        <v>2.511429284623134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1537637433802637</v>
+      </c>
+      <c r="P7">
+        <v>1.055350945927994</v>
+      </c>
+      <c r="Q7">
+        <v>1.543013653836567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9686132691978742</v>
+        <v>0.8142814662355704</v>
       </c>
       <c r="C8">
-        <v>0.09709197918380141</v>
+        <v>0.1250102754227598</v>
       </c>
       <c r="D8">
-        <v>0.06593223333540976</v>
+        <v>0.09748945813745991</v>
       </c>
       <c r="E8">
-        <v>0.05140073689349656</v>
+        <v>0.05772527670269945</v>
       </c>
       <c r="F8">
-        <v>0.948759479383213</v>
+        <v>0.6421117647633494</v>
       </c>
       <c r="G8">
-        <v>0.0008355771008845447</v>
+        <v>0.3963569901802657</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.007880549982620444</v>
       </c>
       <c r="J8">
-        <v>0.07264330461950763</v>
+        <v>0.3621193337742028</v>
       </c>
       <c r="K8">
-        <v>0.7761221865305572</v>
+        <v>0.4003001266762851</v>
       </c>
       <c r="L8">
-        <v>0.1326569608361723</v>
+        <v>0.06820846001034919</v>
       </c>
       <c r="M8">
-        <v>0.2005300752185342</v>
+        <v>0.7189613246464717</v>
       </c>
       <c r="N8">
-        <v>1.250902317121875</v>
+        <v>0.1498416046477473</v>
       </c>
       <c r="O8">
-        <v>2.523305293059707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1822999335650195</v>
+      </c>
+      <c r="P8">
+        <v>1.01566131984195</v>
+      </c>
+      <c r="Q8">
+        <v>1.544658522402131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.279659370893171</v>
+        <v>1.087697942414053</v>
       </c>
       <c r="C9">
-        <v>0.1045514002798313</v>
+        <v>0.1396106187486978</v>
       </c>
       <c r="D9">
-        <v>0.08159591280334411</v>
+        <v>0.117915392865271</v>
       </c>
       <c r="E9">
-        <v>0.05315120827902398</v>
+        <v>0.05983599209955059</v>
       </c>
       <c r="F9">
-        <v>0.9891920314976232</v>
+        <v>0.6681805947792512</v>
       </c>
       <c r="G9">
-        <v>0.0008270393606537681</v>
+        <v>0.4096972817106916</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003999754155954882</v>
       </c>
       <c r="J9">
-        <v>0.06902751616388869</v>
+        <v>0.3581982180866135</v>
       </c>
       <c r="K9">
-        <v>1.042375036944776</v>
+        <v>0.3930633422080589</v>
       </c>
       <c r="L9">
-        <v>0.1593635509086369</v>
+        <v>0.06565630416268142</v>
       </c>
       <c r="M9">
-        <v>0.2593973271949324</v>
+        <v>0.9591316082514538</v>
       </c>
       <c r="N9">
-        <v>1.134783930980539</v>
+        <v>0.1794345606225249</v>
       </c>
       <c r="O9">
-        <v>2.576824778993199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2386817599300493</v>
+      </c>
+      <c r="P9">
+        <v>0.9438588137815174</v>
+      </c>
+      <c r="Q9">
+        <v>1.565380517702849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.511461765830433</v>
+        <v>1.286522310154226</v>
       </c>
       <c r="C10">
-        <v>0.1100552754240738</v>
+        <v>0.1507907038979468</v>
       </c>
       <c r="D10">
-        <v>0.09335584112009343</v>
+        <v>0.133350373927513</v>
       </c>
       <c r="E10">
-        <v>0.05467913004970981</v>
+        <v>0.06155207065914325</v>
       </c>
       <c r="F10">
-        <v>1.02624376090624</v>
+        <v>0.6902071369030409</v>
       </c>
       <c r="G10">
-        <v>0.0008211180463847835</v>
+        <v>0.4215004964557494</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.00243882196991585</v>
       </c>
       <c r="J10">
-        <v>0.06664840626799773</v>
+        <v>0.356667969929731</v>
       </c>
       <c r="K10">
-        <v>1.239794374957768</v>
+        <v>0.3889997413897959</v>
       </c>
       <c r="L10">
-        <v>0.1796133586672255</v>
+        <v>0.06389347535215073</v>
       </c>
       <c r="M10">
-        <v>0.3034358549703313</v>
+        <v>1.135553014287922</v>
       </c>
       <c r="N10">
-        <v>1.055937040698169</v>
+        <v>0.2024093955937758</v>
       </c>
       <c r="O10">
-        <v>2.636642759677727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2802648360972455</v>
+      </c>
+      <c r="P10">
+        <v>0.8951819251177326</v>
+      </c>
+      <c r="Q10">
+        <v>1.587641144393828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.617823513025769</v>
+        <v>1.373595759408317</v>
       </c>
       <c r="C11">
-        <v>0.1125680514622545</v>
+        <v>0.1567383292724358</v>
       </c>
       <c r="D11">
-        <v>0.09876921256812921</v>
+        <v>0.1405580689039141</v>
       </c>
       <c r="E11">
-        <v>0.05543053082540617</v>
+        <v>0.06228970356793084</v>
       </c>
       <c r="F11">
-        <v>1.04487087337165</v>
+        <v>0.699371639565129</v>
       </c>
       <c r="G11">
-        <v>0.0008184961638984733</v>
+        <v>0.4260689392746926</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002426549675026202</v>
       </c>
       <c r="J11">
-        <v>0.06562853586627426</v>
+        <v>0.3556328523289451</v>
       </c>
       <c r="K11">
-        <v>1.330153395255564</v>
+        <v>0.3862702997164646</v>
       </c>
       <c r="L11">
-        <v>0.1889829607665021</v>
+        <v>0.06304822516470221</v>
       </c>
       <c r="M11">
-        <v>0.3236806892059079</v>
+        <v>1.215911674661982</v>
       </c>
       <c r="N11">
-        <v>1.021554949449367</v>
+        <v>0.2137467258929746</v>
       </c>
       <c r="O11">
-        <v>2.668793850910788</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2990678453884712</v>
+      </c>
+      <c r="P11">
+        <v>0.8742564806778788</v>
+      </c>
+      <c r="Q11">
+        <v>1.59535168707356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.658248409125605</v>
+        <v>1.408220122165545</v>
       </c>
       <c r="C12">
-        <v>0.113521210817531</v>
+        <v>0.1585818488199564</v>
       </c>
       <c r="D12">
-        <v>0.1008290305948947</v>
+        <v>0.1432547886119835</v>
       </c>
       <c r="E12">
-        <v>0.05572349979405189</v>
+        <v>0.06262160983249743</v>
       </c>
       <c r="F12">
-        <v>1.052194891463273</v>
+        <v>0.7038430488428205</v>
       </c>
       <c r="G12">
-        <v>0.0008175132645595881</v>
+        <v>0.4286222583229176</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002240570539868258</v>
       </c>
       <c r="J12">
-        <v>0.0652515107558802</v>
+        <v>0.3556688901843472</v>
       </c>
       <c r="K12">
-        <v>1.364462909320878</v>
+        <v>0.3859661669974024</v>
       </c>
       <c r="L12">
-        <v>0.1925555051279986</v>
+        <v>0.06277180774726077</v>
       </c>
       <c r="M12">
-        <v>0.3313806965920776</v>
+        <v>1.246328829171148</v>
       </c>
       <c r="N12">
-        <v>1.008756609751599</v>
+        <v>0.217742453751967</v>
       </c>
       <c r="O12">
-        <v>2.681722237428545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3062914615073424</v>
+      </c>
+      <c r="P12">
+        <v>0.8663288504192614</v>
+      </c>
+      <c r="Q12">
+        <v>1.600912482123249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.649535324953348</v>
+        <v>1.401102924324221</v>
       </c>
       <c r="C13">
-        <v>0.1133158531014402</v>
+        <v>0.1580990632280432</v>
       </c>
       <c r="D13">
-        <v>0.1003849599019446</v>
+        <v>0.1426637962403134</v>
       </c>
       <c r="E13">
-        <v>0.05566002333728015</v>
+        <v>0.06255911339569487</v>
       </c>
       <c r="F13">
-        <v>1.050605252416744</v>
+        <v>0.7030515349980107</v>
       </c>
       <c r="G13">
-        <v>0.000817724513039804</v>
+        <v>0.4282160366531258</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002231344539869617</v>
       </c>
       <c r="J13">
-        <v>0.06533229828745846</v>
+        <v>0.3557337200011119</v>
       </c>
       <c r="K13">
-        <v>1.35706940805963</v>
+        <v>0.3861639545155953</v>
       </c>
       <c r="L13">
-        <v>0.1917849754934693</v>
+        <v>0.06283897584488152</v>
       </c>
       <c r="M13">
-        <v>0.3297208070007898</v>
+        <v>1.239772203445227</v>
       </c>
       <c r="N13">
-        <v>1.011502985028082</v>
+        <v>0.2168124264737088</v>
       </c>
       <c r="O13">
-        <v>2.678903650513377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3047540664530501</v>
+      </c>
+      <c r="P13">
+        <v>0.8679991864073493</v>
+      </c>
+      <c r="Q13">
+        <v>1.600171578287586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.621146227997713</v>
+        <v>1.376588587334936</v>
       </c>
       <c r="C14">
-        <v>0.1126464339078908</v>
+        <v>0.1568535758843339</v>
       </c>
       <c r="D14">
-        <v>0.09893847245616882</v>
+        <v>0.1407755764994363</v>
       </c>
       <c r="E14">
-        <v>0.05545446266535059</v>
+        <v>0.06232082021759489</v>
       </c>
       <c r="F14">
-        <v>1.045467914494665</v>
+        <v>0.6998122363720114</v>
       </c>
       <c r="G14">
-        <v>0.0008184151029382693</v>
+        <v>0.426339956038035</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002389934858023857</v>
       </c>
       <c r="J14">
-        <v>0.06559733263243572</v>
+        <v>0.3556666123895624</v>
       </c>
       <c r="K14">
-        <v>1.332974127012648</v>
+        <v>0.3863014359568062</v>
       </c>
       <c r="L14">
-        <v>0.1892763749385722</v>
+        <v>0.06302872925138647</v>
       </c>
       <c r="M14">
-        <v>0.3243134777073706</v>
+        <v>1.218411644722323</v>
       </c>
       <c r="N14">
-        <v>1.020497538716366</v>
+        <v>0.2140458975944881</v>
       </c>
       <c r="O14">
-        <v>2.669842119370003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2996699068099318</v>
+      </c>
+      <c r="P14">
+        <v>0.8735885809433519</v>
+      </c>
+      <c r="Q14">
+        <v>1.596002929591492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.603776874176674</v>
+        <v>1.360903753347657</v>
       </c>
       <c r="C15">
-        <v>0.1122366171834628</v>
+        <v>0.1562599867753249</v>
       </c>
       <c r="D15">
-        <v>0.09805376772401075</v>
+        <v>0.1396397273991994</v>
       </c>
       <c r="E15">
-        <v>0.05532965869106121</v>
+        <v>0.06215743570050769</v>
       </c>
       <c r="F15">
-        <v>1.04235682930414</v>
+        <v>0.6974954326290757</v>
       </c>
       <c r="G15">
-        <v>0.0008188393938642524</v>
+        <v>0.424911567395803</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002590383938128049</v>
       </c>
       <c r="J15">
-        <v>0.06576087531324681</v>
+        <v>0.355484729025946</v>
       </c>
       <c r="K15">
-        <v>1.318227525107545</v>
+        <v>0.386127450268301</v>
       </c>
       <c r="L15">
-        <v>0.1877430273569445</v>
+        <v>0.06313006013531819</v>
       </c>
       <c r="M15">
-        <v>0.3210058269411675</v>
+        <v>1.205339703556888</v>
       </c>
       <c r="N15">
-        <v>1.026036035623212</v>
+        <v>0.2124898240377178</v>
       </c>
       <c r="O15">
-        <v>2.664391121581843</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2965201312135051</v>
+      </c>
+      <c r="P15">
+        <v>0.8770894036173296</v>
+      </c>
+      <c r="Q15">
+        <v>1.592562488712275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.504530557120233</v>
+        <v>1.275228126233117</v>
       </c>
       <c r="C16">
-        <v>0.109891268684791</v>
+        <v>0.1518057673022</v>
       </c>
       <c r="D16">
-        <v>0.09300340807308061</v>
+        <v>0.1330398037363238</v>
       </c>
       <c r="E16">
-        <v>0.05463118557653601</v>
+        <v>0.06135069187175723</v>
       </c>
       <c r="F16">
-        <v>1.025063398148617</v>
+        <v>0.6866839366759976</v>
       </c>
       <c r="G16">
-        <v>0.0008212908054427535</v>
+        <v>0.4187585523951896</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.003220495143139601</v>
       </c>
       <c r="J16">
-        <v>0.06671633005265321</v>
+        <v>0.3554936838558049</v>
       </c>
       <c r="K16">
-        <v>1.233901410608098</v>
+        <v>0.3869394557799772</v>
       </c>
       <c r="L16">
-        <v>0.1790043592221409</v>
+        <v>0.06381779614074379</v>
       </c>
       <c r="M16">
-        <v>0.302117341657528</v>
+        <v>1.130390056827395</v>
       </c>
       <c r="N16">
-        <v>1.058214541029574</v>
+        <v>0.2027964532972533</v>
       </c>
       <c r="O16">
-        <v>2.634644634536642</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2787271105071838</v>
+      </c>
+      <c r="P16">
+        <v>0.8970350484913574</v>
+      </c>
+      <c r="Q16">
+        <v>1.579355443223932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.443891655267237</v>
+        <v>1.222646216109069</v>
       </c>
       <c r="C17">
-        <v>0.1084550111444642</v>
+        <v>0.1490844015906916</v>
       </c>
       <c r="D17">
-        <v>0.08992200102278503</v>
+        <v>0.1290157313795106</v>
       </c>
       <c r="E17">
-        <v>0.05421735271660033</v>
+        <v>0.06086773842494253</v>
       </c>
       <c r="F17">
-        <v>1.014919046943461</v>
+        <v>0.6802722439523805</v>
       </c>
       <c r="G17">
-        <v>0.0008228127896295476</v>
+        <v>0.4151459837572418</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003686312488921928</v>
       </c>
       <c r="J17">
-        <v>0.06731859434722409</v>
+        <v>0.3555982168347285</v>
       </c>
       <c r="K17">
-        <v>1.182320515252798</v>
+        <v>0.3875454813363284</v>
       </c>
       <c r="L17">
-        <v>0.1736851320664314</v>
+        <v>0.06424774798875266</v>
       </c>
       <c r="M17">
-        <v>0.2905863264211135</v>
+        <v>1.084428676121945</v>
       </c>
       <c r="N17">
-        <v>1.0783409222422</v>
+        <v>0.1969114188763399</v>
       </c>
       <c r="O17">
-        <v>2.617691129435997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2678302729359601</v>
+      </c>
+      <c r="P17">
+        <v>0.909503800060822</v>
+      </c>
+      <c r="Q17">
+        <v>1.571802428893619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.409098702842385</v>
+        <v>1.19408218950619</v>
       </c>
       <c r="C18">
-        <v>0.1076297431387871</v>
+        <v>0.1470965094237329</v>
       </c>
       <c r="D18">
-        <v>0.08815560868220729</v>
+        <v>0.1266619795502635</v>
       </c>
       <c r="E18">
-        <v>0.0539846093841394</v>
+        <v>0.06064095170293093</v>
       </c>
       <c r="F18">
-        <v>1.00925009784256</v>
+        <v>0.6775540941751785</v>
       </c>
       <c r="G18">
-        <v>0.0008236949715308869</v>
+        <v>0.413869258931598</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003708603044923819</v>
       </c>
       <c r="J18">
-        <v>0.06767086113512555</v>
+        <v>0.356072823678673</v>
       </c>
       <c r="K18">
-        <v>1.152703664219558</v>
+        <v>0.3886127842868454</v>
       </c>
       <c r="L18">
-        <v>0.1706403990103453</v>
+        <v>0.06453794422085846</v>
       </c>
       <c r="M18">
-        <v>0.2839736864280553</v>
+        <v>1.057970736442684</v>
       </c>
       <c r="N18">
-        <v>1.090056438151025</v>
+        <v>0.1932079209623865</v>
       </c>
       <c r="O18">
-        <v>2.608402117536741</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2616625901091147</v>
+      </c>
+      <c r="P18">
+        <v>0.9166250302478005</v>
+      </c>
+      <c r="Q18">
+        <v>1.570024081211969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.397332506782902</v>
+        <v>1.183106035621478</v>
       </c>
       <c r="C19">
-        <v>0.1073504545168689</v>
+        <v>0.1467526205667511</v>
       </c>
       <c r="D19">
-        <v>0.08755853928124679</v>
+        <v>0.12590360866119</v>
       </c>
       <c r="E19">
-        <v>0.05390670406224274</v>
+        <v>0.06052891397887983</v>
       </c>
       <c r="F19">
-        <v>1.007358710801768</v>
+        <v>0.6759603672203127</v>
       </c>
       <c r="G19">
-        <v>0.0008239948378913808</v>
+        <v>0.4128735395753509</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003928844423414013</v>
       </c>
       <c r="J19">
-        <v>0.06779113308172313</v>
+        <v>0.3559474587595162</v>
       </c>
       <c r="K19">
-        <v>1.142684300576775</v>
+        <v>0.3884562939986971</v>
       </c>
       <c r="L19">
-        <v>0.1696119849408291</v>
+        <v>0.06460588177406201</v>
       </c>
       <c r="M19">
-        <v>0.2817380452481117</v>
+        <v>1.049034142328054</v>
       </c>
       <c r="N19">
-        <v>1.094046815930593</v>
+        <v>0.1922202924558789</v>
       </c>
       <c r="O19">
-        <v>2.605335129546205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2595032635006511</v>
+      </c>
+      <c r="P19">
+        <v>0.9191544426986162</v>
+      </c>
+      <c r="Q19">
+        <v>1.567628059872888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.450337861983115</v>
+        <v>1.22837729440289</v>
       </c>
       <c r="C20">
-        <v>0.1086078151011307</v>
+        <v>0.1493401392306808</v>
       </c>
       <c r="D20">
-        <v>0.09024940096992395</v>
+        <v>0.129439407017685</v>
       </c>
       <c r="E20">
-        <v>0.05426085690970162</v>
+        <v>0.06092236046136712</v>
       </c>
       <c r="F20">
-        <v>1.015981660125718</v>
+        <v>0.6810163783997112</v>
       </c>
       <c r="G20">
-        <v>0.0008226500730328052</v>
+        <v>0.4155827910507099</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003612078258750984</v>
       </c>
       <c r="J20">
-        <v>0.06725387432134156</v>
+        <v>0.3556130664139303</v>
       </c>
       <c r="K20">
-        <v>1.187806006984488</v>
+        <v>0.3875302073619125</v>
       </c>
       <c r="L20">
-        <v>0.1742498342275454</v>
+        <v>0.06420479706702675</v>
       </c>
       <c r="M20">
-        <v>0.2918117609890061</v>
+        <v>1.089318679305791</v>
       </c>
       <c r="N20">
-        <v>1.076183957320413</v>
+        <v>0.1975088660961575</v>
       </c>
       <c r="O20">
-        <v>2.619447719563823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2689969366348492</v>
+      </c>
+      <c r="P20">
+        <v>0.9081568343082722</v>
+      </c>
+      <c r="Q20">
+        <v>1.572771714369082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.629480638925372</v>
+        <v>1.38189164418327</v>
       </c>
       <c r="C21">
-        <v>0.1128430116938546</v>
+        <v>0.1576982638530424</v>
       </c>
       <c r="D21">
-        <v>0.09936306639097836</v>
+        <v>0.1413832994499273</v>
       </c>
       <c r="E21">
-        <v>0.05551460932515084</v>
+        <v>0.06233861739646862</v>
       </c>
       <c r="F21">
-        <v>1.046969409875217</v>
+        <v>0.699768215044152</v>
       </c>
       <c r="G21">
-        <v>0.0008182119929571566</v>
+        <v>0.4260606253149319</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002620227945833165</v>
       </c>
       <c r="J21">
-        <v>0.06551923484822808</v>
+        <v>0.3552640860480665</v>
       </c>
       <c r="K21">
-        <v>1.340048875105197</v>
+        <v>0.3855036736992972</v>
       </c>
       <c r="L21">
-        <v>0.1900125326189368</v>
+        <v>0.06292899245698624</v>
       </c>
       <c r="M21">
-        <v>0.3259007985032696</v>
+        <v>1.224714067080953</v>
       </c>
       <c r="N21">
-        <v>1.0178495469283</v>
+        <v>0.2152375140820055</v>
       </c>
       <c r="O21">
-        <v>2.67248290412644</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3010574735696565</v>
+      </c>
+      <c r="P21">
+        <v>0.8721157599927487</v>
+      </c>
+      <c r="Q21">
+        <v>1.594582510713479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.747432049481887</v>
+        <v>1.484570593713272</v>
       </c>
       <c r="C22">
-        <v>0.1156206046928077</v>
+        <v>0.1625934076482736</v>
       </c>
       <c r="D22">
-        <v>0.1053774013478375</v>
+        <v>0.1492055127239666</v>
       </c>
       <c r="E22">
-        <v>0.0563833106768783</v>
+        <v>0.06337016975324516</v>
       </c>
       <c r="F22">
-        <v>1.068805330308678</v>
+        <v>0.7140300729711839</v>
       </c>
       <c r="G22">
-        <v>0.000815369265681249</v>
+        <v>0.4345102079781924</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001881271978226629</v>
       </c>
       <c r="J22">
-        <v>0.06443914616691515</v>
+        <v>0.3559028304572109</v>
       </c>
       <c r="K22">
-        <v>1.440094392371833</v>
+        <v>0.3855012771376423</v>
       </c>
       <c r="L22">
-        <v>0.2004579613346777</v>
+        <v>0.06217742106706314</v>
       </c>
       <c r="M22">
-        <v>0.3483782476450514</v>
+        <v>1.31324457774241</v>
       </c>
       <c r="N22">
-        <v>0.9810191541184796</v>
+        <v>0.2265511567129721</v>
       </c>
       <c r="O22">
-        <v>2.711558298735298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3222110479856468</v>
+      </c>
+      <c r="P22">
+        <v>0.8491214406307179</v>
+      </c>
+      <c r="Q22">
+        <v>1.614041865137921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.684393654659686</v>
+        <v>1.43206399348324</v>
       </c>
       <c r="C23">
-        <v>0.1141371530993993</v>
+        <v>0.1593999256650349</v>
       </c>
       <c r="D23">
-        <v>0.1021618753509728</v>
+        <v>0.144958234983406</v>
       </c>
       <c r="E23">
-        <v>0.05591504383386514</v>
+        <v>0.062878590991712</v>
       </c>
       <c r="F23">
-        <v>1.05700080165073</v>
+        <v>0.707543787703969</v>
       </c>
       <c r="G23">
-        <v>0.0008168813193401373</v>
+        <v>0.4309465609308916</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001933246132447053</v>
       </c>
       <c r="J23">
-        <v>0.0650106346565682</v>
+        <v>0.3560377360798554</v>
       </c>
       <c r="K23">
-        <v>1.386643676921892</v>
+        <v>0.3863798140565677</v>
       </c>
       <c r="L23">
-        <v>0.1948692824532969</v>
+        <v>0.06262895272687885</v>
       </c>
       <c r="M23">
-        <v>0.3363623123427786</v>
+        <v>1.265951102803598</v>
       </c>
       <c r="N23">
-        <v>1.000555086307337</v>
+        <v>0.220035143528591</v>
       </c>
       <c r="O23">
-        <v>2.690284165184977</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3110418215954596</v>
+      </c>
+      <c r="P23">
+        <v>0.8611102280213707</v>
+      </c>
+      <c r="Q23">
+        <v>1.606658973832822</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.44742331775268</v>
+        <v>1.229366811062903</v>
       </c>
       <c r="C24">
-        <v>0.1085387310378039</v>
+        <v>0.1483246486100356</v>
       </c>
       <c r="D24">
-        <v>0.09010136746868369</v>
+        <v>0.1291461858803729</v>
       </c>
       <c r="E24">
-        <v>0.05424117257056871</v>
+        <v>0.06099640569773079</v>
       </c>
       <c r="F24">
-        <v>1.015500745618297</v>
+        <v>0.6825645641756068</v>
       </c>
       <c r="G24">
-        <v>0.000822723614848322</v>
+        <v>0.4169585770029514</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003106761063274455</v>
       </c>
       <c r="J24">
-        <v>0.06728311551864863</v>
+        <v>0.3564076315641884</v>
       </c>
       <c r="K24">
-        <v>1.185325899750552</v>
+        <v>0.3889767117823233</v>
       </c>
       <c r="L24">
-        <v>0.1739944908954243</v>
+        <v>0.06430872344830263</v>
       </c>
       <c r="M24">
-        <v>0.2912576902700721</v>
+        <v>1.087051110661037</v>
       </c>
       <c r="N24">
-        <v>1.077158671373709</v>
+        <v>0.1965186323842545</v>
       </c>
       <c r="O24">
-        <v>2.618652142503464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2686676858867898</v>
+      </c>
+      <c r="P24">
+        <v>0.9084762730439095</v>
+      </c>
+      <c r="Q24">
+        <v>1.577347431835236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.19500085273944</v>
+        <v>1.010482564376417</v>
       </c>
       <c r="C25">
-        <v>0.102530521664896</v>
+        <v>0.1364814771398599</v>
       </c>
       <c r="D25">
-        <v>0.07731707032533564</v>
+        <v>0.1124212795612038</v>
       </c>
       <c r="E25">
-        <v>0.05263641100634153</v>
+        <v>0.05913579195091323</v>
       </c>
       <c r="F25">
-        <v>0.9770206784625159</v>
+        <v>0.6587174750324465</v>
       </c>
       <c r="G25">
-        <v>0.000829285909320748</v>
+        <v>0.4041436364807822</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005329450871528252</v>
       </c>
       <c r="J25">
-        <v>0.06995768208665964</v>
+        <v>0.3582061797009715</v>
       </c>
       <c r="K25">
-        <v>0.9700798304409375</v>
+        <v>0.3933279459739829</v>
       </c>
       <c r="L25">
-        <v>0.1520350696425652</v>
+        <v>0.06623855426383596</v>
       </c>
       <c r="M25">
-        <v>0.2433462447674302</v>
+        <v>0.8942454442683072</v>
       </c>
       <c r="N25">
-        <v>1.165088644982314</v>
+        <v>0.1719516424377332</v>
       </c>
       <c r="O25">
-        <v>2.558903766070188</v>
+        <v>0.2232069908918888</v>
+      </c>
+      <c r="P25">
+        <v>0.9628121420190823</v>
+      </c>
+      <c r="Q25">
+        <v>1.55345272349652</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8543958151015545</v>
+        <v>0.8245265942472599</v>
       </c>
       <c r="C2">
-        <v>0.1264743139504176</v>
+        <v>0.1176223961496419</v>
       </c>
       <c r="D2">
-        <v>0.1002050421705007</v>
+        <v>0.1012888637631022</v>
       </c>
       <c r="E2">
-        <v>0.05805745918266325</v>
+        <v>0.0556579902698946</v>
       </c>
       <c r="F2">
-        <v>0.6465324893956108</v>
+        <v>0.6134346970982349</v>
       </c>
       <c r="G2">
-        <v>0.3989313525819895</v>
+        <v>0.3594547784312354</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.006922796117097896</v>
+        <v>0.005152974350485451</v>
       </c>
       <c r="J2">
-        <v>0.3619136008085491</v>
+        <v>0.3656404169147152</v>
       </c>
       <c r="K2">
-        <v>0.4000366046145878</v>
+        <v>0.3662177186762392</v>
       </c>
       <c r="L2">
-        <v>0.06789650942340231</v>
+        <v>0.1677639889494174</v>
       </c>
       <c r="M2">
-        <v>0.7521334185456681</v>
+        <v>0.1105506220822292</v>
       </c>
       <c r="N2">
-        <v>0.1533726106472528</v>
+        <v>0.06356121602013687</v>
       </c>
       <c r="O2">
-        <v>0.1901912380182971</v>
+        <v>0.7557917588545422</v>
       </c>
       <c r="P2">
-        <v>1.005207000362704</v>
+        <v>0.1638163383225901</v>
       </c>
       <c r="Q2">
-        <v>1.549780397460367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1881118261206645</v>
+      </c>
+      <c r="R2">
+        <v>0.9748701059238698</v>
+      </c>
+      <c r="S2">
+        <v>1.456911631491622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7451458003755533</v>
+        <v>0.7214308265688203</v>
       </c>
       <c r="C3">
-        <v>0.1204838193846243</v>
+        <v>0.1092822244043816</v>
       </c>
       <c r="D3">
-        <v>0.09216255043282473</v>
+        <v>0.09309475777876486</v>
       </c>
       <c r="E3">
-        <v>0.05732142869466017</v>
+        <v>0.05502537703271493</v>
       </c>
       <c r="F3">
-        <v>0.6380106962797143</v>
+        <v>0.6065638226482903</v>
       </c>
       <c r="G3">
-        <v>0.3950118567698198</v>
+        <v>0.3583119959991663</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.008838386839781442</v>
+        <v>0.006597233011787829</v>
       </c>
       <c r="J3">
-        <v>0.3643744884650175</v>
+        <v>0.3658170393754574</v>
       </c>
       <c r="K3">
-        <v>0.4040228582108689</v>
+        <v>0.3709239215076856</v>
       </c>
       <c r="L3">
-        <v>0.06900392904066877</v>
+        <v>0.1726466623573373</v>
       </c>
       <c r="M3">
-        <v>0.6557521684740522</v>
+        <v>0.1107745724585083</v>
       </c>
       <c r="N3">
-        <v>0.1417701717158621</v>
+        <v>0.06460593986116425</v>
       </c>
       <c r="O3">
-        <v>0.1677165351231409</v>
+        <v>0.6592961141432312</v>
       </c>
       <c r="P3">
-        <v>1.035717196248221</v>
+        <v>0.1511715976284904</v>
       </c>
       <c r="Q3">
-        <v>1.546346585827891</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1658715383151552</v>
+      </c>
+      <c r="R3">
+        <v>1.001783985025952</v>
+      </c>
+      <c r="S3">
+        <v>1.457167673738681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6778024637679607</v>
+        <v>0.6577062332336823</v>
       </c>
       <c r="C4">
-        <v>0.1168275579437861</v>
+        <v>0.1042337772322597</v>
       </c>
       <c r="D4">
-        <v>0.0872950542752875</v>
+        <v>0.08813829359078795</v>
       </c>
       <c r="E4">
-        <v>0.05690660992089924</v>
+        <v>0.05466945375505183</v>
       </c>
       <c r="F4">
-        <v>0.6333952001325329</v>
+        <v>0.6028514565446415</v>
       </c>
       <c r="G4">
-        <v>0.3930390276545026</v>
+        <v>0.3580503878058465</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01022166182560724</v>
+        <v>0.00765974262504443</v>
       </c>
       <c r="J4">
-        <v>0.3661812822978092</v>
+        <v>0.3660508688108024</v>
       </c>
       <c r="K4">
-        <v>0.4067795066938409</v>
+        <v>0.3740402023754363</v>
       </c>
       <c r="L4">
-        <v>0.06971128983951314</v>
+        <v>0.1757651501683775</v>
       </c>
       <c r="M4">
-        <v>0.5964881118184024</v>
+        <v>0.1114684139449658</v>
       </c>
       <c r="N4">
-        <v>0.1348278879288571</v>
+        <v>0.06527011189062737</v>
       </c>
       <c r="O4">
-        <v>0.1539413792796367</v>
+        <v>0.5999377106932826</v>
       </c>
       <c r="P4">
-        <v>1.055208660620929</v>
+        <v>0.1436244239585136</v>
       </c>
       <c r="Q4">
-        <v>1.545769464166156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1522230854773454</v>
+      </c>
+      <c r="R4">
+        <v>1.019062105105693</v>
+      </c>
+      <c r="S4">
+        <v>1.458552268296685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6497345978416718</v>
+        <v>0.6310742661969755</v>
       </c>
       <c r="C5">
-        <v>0.1154755685917408</v>
+        <v>0.102347226239857</v>
       </c>
       <c r="D5">
-        <v>0.0853451012972215</v>
+        <v>0.08615351678590599</v>
       </c>
       <c r="E5">
-        <v>0.05673074911644171</v>
+        <v>0.05451655292123014</v>
       </c>
       <c r="F5">
-        <v>0.6313583640744582</v>
+        <v>0.6011575828733555</v>
       </c>
       <c r="G5">
-        <v>0.3920837999677005</v>
+        <v>0.3578019928221892</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01091986489605556</v>
+        <v>0.00823141026044194</v>
       </c>
       <c r="J5">
-        <v>0.3668578817277677</v>
+        <v>0.3660387536607317</v>
       </c>
       <c r="K5">
-        <v>0.4077400560360509</v>
+        <v>0.3751352545132534</v>
       </c>
       <c r="L5">
-        <v>0.06999134923917705</v>
+        <v>0.1769438899435087</v>
       </c>
       <c r="M5">
-        <v>0.5723231529706823</v>
+        <v>0.1118389804170983</v>
       </c>
       <c r="N5">
-        <v>0.1321574718735121</v>
+        <v>0.06553249236264591</v>
       </c>
       <c r="O5">
-        <v>0.1483029430893517</v>
+        <v>0.5757292034050892</v>
       </c>
       <c r="P5">
-        <v>1.063344356657741</v>
+        <v>0.1407203019825332</v>
       </c>
       <c r="Q5">
-        <v>1.545086364183206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1466317495541531</v>
+      </c>
+      <c r="R5">
+        <v>1.02631200006312</v>
+      </c>
+      <c r="S5">
+        <v>1.458604634133891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6443875899019815</v>
+        <v>0.6259641879657352</v>
       </c>
       <c r="C6">
-        <v>0.1154156825446293</v>
+        <v>0.1022244515691426</v>
       </c>
       <c r="D6">
-        <v>0.08504242764384173</v>
+        <v>0.0858455779878966</v>
       </c>
       <c r="E6">
-        <v>0.05668248825049993</v>
+        <v>0.05447216097522301</v>
       </c>
       <c r="F6">
-        <v>0.6306535133415139</v>
+        <v>0.6005107967584991</v>
       </c>
       <c r="G6">
-        <v>0.3916171764815886</v>
+        <v>0.3574630476092864</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01114876328701797</v>
+        <v>0.008454797989156937</v>
       </c>
       <c r="J6">
-        <v>0.3668123331611213</v>
+        <v>0.3658693411372482</v>
       </c>
       <c r="K6">
-        <v>0.4076120298845787</v>
+        <v>0.3750387265700503</v>
       </c>
       <c r="L6">
-        <v>0.07001989326503733</v>
+        <v>0.1769926104958053</v>
       </c>
       <c r="M6">
-        <v>0.5683217608370228</v>
+        <v>0.1118454010629648</v>
       </c>
       <c r="N6">
-        <v>0.1318570619284785</v>
+        <v>0.06555938828785468</v>
       </c>
       <c r="O6">
-        <v>0.1473299607450365</v>
+        <v>0.5717206524229397</v>
       </c>
       <c r="P6">
-        <v>1.064714569863749</v>
+        <v>0.1403865707835905</v>
       </c>
       <c r="Q6">
-        <v>1.543988877096183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1456658858934325</v>
+      </c>
+      <c r="R6">
+        <v>1.027556513816135</v>
+      </c>
+      <c r="S6">
+        <v>1.457638518983373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6755545762730151</v>
+        <v>0.6551545237155665</v>
       </c>
       <c r="C7">
-        <v>0.1172598780767089</v>
+        <v>0.1045970794246358</v>
       </c>
       <c r="D7">
-        <v>0.08732353825288897</v>
+        <v>0.08829488092835902</v>
       </c>
       <c r="E7">
-        <v>0.05685068218927647</v>
+        <v>0.0546372798178556</v>
       </c>
       <c r="F7">
-        <v>0.6323420586747943</v>
+        <v>0.6012306062420905</v>
       </c>
       <c r="G7">
-        <v>0.3921680245198687</v>
+        <v>0.3594554306529432</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01051471783310998</v>
+        <v>0.007998672108261218</v>
       </c>
       <c r="J7">
-        <v>0.3657479292022998</v>
+        <v>0.3623699272879861</v>
       </c>
       <c r="K7">
-        <v>0.4059958414518086</v>
+        <v>0.3730101659669849</v>
       </c>
       <c r="L7">
-        <v>0.06966522877035075</v>
+        <v>0.1752433416842543</v>
       </c>
       <c r="M7">
-        <v>0.5961969230278328</v>
+        <v>0.111222735396062</v>
       </c>
       <c r="N7">
-        <v>0.135175169182034</v>
+        <v>0.06522510304413398</v>
       </c>
       <c r="O7">
-        <v>0.1537637433802637</v>
+        <v>0.5990676885399466</v>
       </c>
       <c r="P7">
-        <v>1.055350945927994</v>
+        <v>0.1439643095456873</v>
       </c>
       <c r="Q7">
-        <v>1.543013653836567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1519862833293537</v>
+      </c>
+      <c r="R7">
+        <v>1.019314621168107</v>
+      </c>
+      <c r="S7">
+        <v>1.454146004138565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8142814662355704</v>
+        <v>0.7854827302218155</v>
       </c>
       <c r="C8">
-        <v>0.1250102754227598</v>
+        <v>0.1149934300042474</v>
       </c>
       <c r="D8">
-        <v>0.09748945813745991</v>
+        <v>0.09894811845857987</v>
       </c>
       <c r="E8">
-        <v>0.05772527670269945</v>
+        <v>0.0554402655015398</v>
       </c>
       <c r="F8">
-        <v>0.6421117647633494</v>
+        <v>0.6077022554174221</v>
       </c>
       <c r="G8">
-        <v>0.3963569901802657</v>
+        <v>0.3653708804569078</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.007880549982620444</v>
+        <v>0.006023380510277399</v>
       </c>
       <c r="J8">
-        <v>0.3621193337742028</v>
+        <v>0.3546444236801847</v>
       </c>
       <c r="K8">
-        <v>0.4003001266762851</v>
+        <v>0.3658867139800357</v>
       </c>
       <c r="L8">
-        <v>0.06820846001034919</v>
+        <v>0.1685319165787718</v>
       </c>
       <c r="M8">
-        <v>0.7189613246464717</v>
+        <v>0.1099645557075988</v>
       </c>
       <c r="N8">
-        <v>0.1498416046477473</v>
+        <v>0.06385099553945217</v>
       </c>
       <c r="O8">
-        <v>0.1822999335650195</v>
+        <v>0.7206430513941342</v>
       </c>
       <c r="P8">
-        <v>1.01566131984195</v>
+        <v>0.1598756849427545</v>
       </c>
       <c r="Q8">
-        <v>1.544658522402131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1801060864078394</v>
+      </c>
+      <c r="R8">
+        <v>0.9844558854924301</v>
+      </c>
+      <c r="S8">
+        <v>1.447588150247441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.087697942414053</v>
+        <v>1.042285807380495</v>
       </c>
       <c r="C9">
-        <v>0.1396106187486978</v>
+        <v>0.1355312748768824</v>
       </c>
       <c r="D9">
-        <v>0.117915392865271</v>
+        <v>0.1198949392611866</v>
       </c>
       <c r="E9">
-        <v>0.05983599209955059</v>
+        <v>0.05728805292016403</v>
       </c>
       <c r="F9">
-        <v>0.6681805947792512</v>
+        <v>0.628484762803609</v>
       </c>
       <c r="G9">
-        <v>0.4096972817106916</v>
+        <v>0.3738621866279459</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.003999754155954882</v>
+        <v>0.003081677476743927</v>
       </c>
       <c r="J9">
-        <v>0.3581982180866135</v>
+        <v>0.3526510091313213</v>
       </c>
       <c r="K9">
-        <v>0.3930633422080589</v>
+        <v>0.3561227553704391</v>
       </c>
       <c r="L9">
-        <v>0.06565630416268142</v>
+        <v>0.157468721875949</v>
       </c>
       <c r="M9">
-        <v>0.9591316082514538</v>
+        <v>0.1125726644116938</v>
       </c>
       <c r="N9">
-        <v>0.1794345606225249</v>
+        <v>0.06142441103252594</v>
       </c>
       <c r="O9">
-        <v>0.2386817599300493</v>
+        <v>0.9603589486036128</v>
       </c>
       <c r="P9">
-        <v>0.9438588137815174</v>
+        <v>0.1922292606310023</v>
       </c>
       <c r="Q9">
-        <v>1.565380517702849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.235740830231034</v>
+      </c>
+      <c r="R9">
+        <v>0.9217263864470624</v>
+      </c>
+      <c r="S9">
+        <v>1.455811003376013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.286522310154226</v>
+        <v>1.22606933268068</v>
       </c>
       <c r="C10">
-        <v>0.1507907038979468</v>
+        <v>0.1505673585860023</v>
       </c>
       <c r="D10">
-        <v>0.133350373927513</v>
+        <v>0.136499518675663</v>
       </c>
       <c r="E10">
-        <v>0.06155207065914325</v>
+        <v>0.05892614347324532</v>
       </c>
       <c r="F10">
-        <v>0.6902071369030409</v>
+        <v>0.6426867833032262</v>
       </c>
       <c r="G10">
-        <v>0.4215004964557494</v>
+        <v>0.3957853292117193</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.00243882196991585</v>
+        <v>0.002065867810512323</v>
       </c>
       <c r="J10">
-        <v>0.356667969929731</v>
+        <v>0.3346417690896217</v>
       </c>
       <c r="K10">
-        <v>0.3889997413897959</v>
+        <v>0.3482595449062522</v>
       </c>
       <c r="L10">
-        <v>0.06389347535215073</v>
+        <v>0.1492726833381308</v>
       </c>
       <c r="M10">
-        <v>1.135553014287922</v>
+        <v>0.1164592761546537</v>
       </c>
       <c r="N10">
-        <v>0.2024093955937758</v>
+        <v>0.0597247809122301</v>
       </c>
       <c r="O10">
-        <v>0.2802648360972455</v>
+        <v>1.132747101085812</v>
       </c>
       <c r="P10">
-        <v>0.8951819251177326</v>
+        <v>0.217293987339815</v>
       </c>
       <c r="Q10">
-        <v>1.587641144393828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2763125616919737</v>
+      </c>
+      <c r="R10">
+        <v>0.8805190018537061</v>
+      </c>
+      <c r="S10">
+        <v>1.457569096063153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.373595759408317</v>
+        <v>1.302610431271688</v>
       </c>
       <c r="C11">
-        <v>0.1567383292724358</v>
+        <v>0.1570198060940839</v>
       </c>
       <c r="D11">
-        <v>0.1405580689039141</v>
+        <v>0.1456289859567192</v>
       </c>
       <c r="E11">
-        <v>0.06228970356793084</v>
+        <v>0.0598747219485869</v>
       </c>
       <c r="F11">
-        <v>0.699371639565129</v>
+        <v>0.6422765326998388</v>
       </c>
       <c r="G11">
-        <v>0.4260689392746926</v>
+        <v>0.4304733013278934</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.002426549675026202</v>
+        <v>0.002349342644857089</v>
       </c>
       <c r="J11">
-        <v>0.3556328523289451</v>
+        <v>0.300520318798398</v>
       </c>
       <c r="K11">
-        <v>0.3862702997164646</v>
+        <v>0.3411216728578914</v>
       </c>
       <c r="L11">
-        <v>0.06304822516470221</v>
+        <v>0.1444247183550313</v>
       </c>
       <c r="M11">
-        <v>1.215911674661982</v>
+        <v>0.1171794394939347</v>
       </c>
       <c r="N11">
-        <v>0.2137467258929746</v>
+        <v>0.05890068217782751</v>
       </c>
       <c r="O11">
-        <v>0.2990678453884712</v>
+        <v>1.204961998310068</v>
       </c>
       <c r="P11">
-        <v>0.8742564806778788</v>
+        <v>0.2294252498900278</v>
       </c>
       <c r="Q11">
-        <v>1.59535168707356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2939831261436154</v>
+      </c>
+      <c r="R11">
+        <v>0.8647512435151619</v>
+      </c>
+      <c r="S11">
+        <v>1.438676775329455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.408220122165545</v>
+        <v>1.332727824900644</v>
       </c>
       <c r="C12">
-        <v>0.1585818488199564</v>
+        <v>0.1587959535414427</v>
       </c>
       <c r="D12">
-        <v>0.1432547886119835</v>
+        <v>0.1492397297329404</v>
       </c>
       <c r="E12">
-        <v>0.06262160983249743</v>
+        <v>0.06031960780659062</v>
       </c>
       <c r="F12">
-        <v>0.7038430488428205</v>
+        <v>0.6423073442016474</v>
       </c>
       <c r="G12">
-        <v>0.4286222583229176</v>
+        <v>0.4483696446539511</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.002240570539868258</v>
+        <v>0.00222585542178777</v>
       </c>
       <c r="J12">
-        <v>0.3556688901843472</v>
+        <v>0.2865828384893732</v>
       </c>
       <c r="K12">
-        <v>0.3859661669974024</v>
+        <v>0.3387368286956693</v>
       </c>
       <c r="L12">
-        <v>0.06277180774726077</v>
+        <v>0.1427397040983482</v>
       </c>
       <c r="M12">
-        <v>1.246328829171148</v>
+        <v>0.1176168280668968</v>
       </c>
       <c r="N12">
-        <v>0.217742453751967</v>
+        <v>0.05862511383946512</v>
       </c>
       <c r="O12">
-        <v>0.3062914615073424</v>
+        <v>1.231470596972173</v>
       </c>
       <c r="P12">
-        <v>0.8663288504192614</v>
+        <v>0.2336806050851976</v>
       </c>
       <c r="Q12">
-        <v>1.600912482123249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3006887196688695</v>
+      </c>
+      <c r="R12">
+        <v>0.8589268682142617</v>
+      </c>
+      <c r="S12">
+        <v>1.431816101960948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.401102924324221</v>
+        <v>1.326598056164897</v>
       </c>
       <c r="C13">
-        <v>0.1580990632280432</v>
+        <v>0.1583194424734842</v>
       </c>
       <c r="D13">
-        <v>0.1426637962403134</v>
+        <v>0.1484428200610637</v>
       </c>
       <c r="E13">
-        <v>0.06255911339569487</v>
+        <v>0.06023112084063165</v>
       </c>
       <c r="F13">
-        <v>0.7030515349980107</v>
+        <v>0.6424996342313278</v>
       </c>
       <c r="G13">
-        <v>0.4282160366531258</v>
+        <v>0.4444777834210498</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.002231344539869617</v>
+        <v>0.002194462927755936</v>
       </c>
       <c r="J13">
-        <v>0.3557337200011119</v>
+        <v>0.2896569828907118</v>
       </c>
       <c r="K13">
-        <v>0.3861639545155953</v>
+        <v>0.3393847304529061</v>
       </c>
       <c r="L13">
-        <v>0.06283897584488152</v>
+        <v>0.1431458997558686</v>
       </c>
       <c r="M13">
-        <v>1.239772203445227</v>
+        <v>0.117577458757399</v>
       </c>
       <c r="N13">
-        <v>0.2168124264737088</v>
+        <v>0.05869094527723373</v>
       </c>
       <c r="O13">
-        <v>0.3047540664530501</v>
+        <v>1.225793039343756</v>
       </c>
       <c r="P13">
-        <v>0.8679991864073493</v>
+        <v>0.23269278834006</v>
       </c>
       <c r="Q13">
-        <v>1.600171578287586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2992670429144368</v>
+      </c>
+      <c r="R13">
+        <v>0.860106670662045</v>
+      </c>
+      <c r="S13">
+        <v>1.433819669875149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.376588587334936</v>
+        <v>1.305240232388911</v>
       </c>
       <c r="C14">
-        <v>0.1568535758843339</v>
+        <v>0.1571260689995313</v>
       </c>
       <c r="D14">
-        <v>0.1407755764994363</v>
+        <v>0.1459176575721841</v>
       </c>
       <c r="E14">
-        <v>0.06232082021759489</v>
+        <v>0.05991439008381683</v>
       </c>
       <c r="F14">
-        <v>0.6998122363720114</v>
+        <v>0.6423645467314287</v>
       </c>
       <c r="G14">
-        <v>0.426339956038035</v>
+        <v>0.4319251981365682</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.002389934858023857</v>
+        <v>0.002314132318421258</v>
       </c>
       <c r="J14">
-        <v>0.3556666123895624</v>
+        <v>0.2994102867731314</v>
       </c>
       <c r="K14">
-        <v>0.3863014359568062</v>
+        <v>0.3409831341122249</v>
       </c>
       <c r="L14">
-        <v>0.06302872925138647</v>
+        <v>0.1443048853070525</v>
       </c>
       <c r="M14">
-        <v>1.218411644722323</v>
+        <v>0.1172386927607292</v>
       </c>
       <c r="N14">
-        <v>0.2140458975944881</v>
+        <v>0.05888077247282819</v>
       </c>
       <c r="O14">
-        <v>0.2996699068099318</v>
+        <v>1.207157129156514</v>
       </c>
       <c r="P14">
-        <v>0.8735885809433519</v>
+        <v>0.2297450089272957</v>
       </c>
       <c r="Q14">
-        <v>1.596002929591492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2945444329065054</v>
+      </c>
+      <c r="R14">
+        <v>0.8642406956485438</v>
+      </c>
+      <c r="S14">
+        <v>1.438338897761028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.360903753347657</v>
+        <v>1.291433772878378</v>
       </c>
       <c r="C15">
-        <v>0.1562599867753249</v>
+        <v>0.1565744479972864</v>
       </c>
       <c r="D15">
-        <v>0.1396397273991994</v>
+        <v>0.1444174043888893</v>
       </c>
       <c r="E15">
-        <v>0.06215743570050769</v>
+        <v>0.05970770471982867</v>
       </c>
       <c r="F15">
-        <v>0.6974954326290757</v>
+        <v>0.6418595505329492</v>
       </c>
       <c r="G15">
-        <v>0.424911567395803</v>
+        <v>0.4244887746256012</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.002590383938128049</v>
+        <v>0.002508258449990031</v>
       </c>
       <c r="J15">
-        <v>0.355484729025946</v>
+        <v>0.3051634977118738</v>
       </c>
       <c r="K15">
-        <v>0.386127450268301</v>
+        <v>0.3416826013188512</v>
       </c>
       <c r="L15">
-        <v>0.06313006013531819</v>
+        <v>0.1449239181597513</v>
       </c>
       <c r="M15">
-        <v>1.205339703556888</v>
+        <v>0.1169206182239648</v>
       </c>
       <c r="N15">
-        <v>0.2124898240377178</v>
+        <v>0.05898432450592406</v>
       </c>
       <c r="O15">
-        <v>0.2965201312135051</v>
+        <v>1.195645669352587</v>
       </c>
       <c r="P15">
-        <v>0.8770894036173296</v>
+        <v>0.2280805265827581</v>
       </c>
       <c r="Q15">
-        <v>1.592562488712275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2916040848826924</v>
+      </c>
+      <c r="R15">
+        <v>0.8669303523345206</v>
+      </c>
+      <c r="S15">
+        <v>1.439980321667022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.275228126233117</v>
+        <v>1.215474636297159</v>
       </c>
       <c r="C16">
-        <v>0.1518057673022</v>
+        <v>0.1518117653413498</v>
       </c>
       <c r="D16">
-        <v>0.1330398037363238</v>
+        <v>0.1360926022540951</v>
       </c>
       <c r="E16">
-        <v>0.06135069187175723</v>
+        <v>0.05871759644143459</v>
       </c>
       <c r="F16">
-        <v>0.6866839366759976</v>
+        <v>0.6397800699499854</v>
       </c>
       <c r="G16">
-        <v>0.4187585523951896</v>
+        <v>0.3915705220326373</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.003220495143139601</v>
+        <v>0.00297101946186018</v>
       </c>
       <c r="J16">
-        <v>0.3554936838558049</v>
+        <v>0.3354896561824461</v>
       </c>
       <c r="K16">
-        <v>0.3869394557799772</v>
+        <v>0.3466260512741854</v>
       </c>
       <c r="L16">
-        <v>0.06381779614074379</v>
+        <v>0.1488464911592242</v>
       </c>
       <c r="M16">
-        <v>1.130390056827395</v>
+        <v>0.1155795315678212</v>
       </c>
       <c r="N16">
-        <v>0.2027964532972533</v>
+        <v>0.05966660740022522</v>
       </c>
       <c r="O16">
-        <v>0.2787271105071838</v>
+        <v>1.128011089906323</v>
       </c>
       <c r="P16">
-        <v>0.8970350484913574</v>
+        <v>0.2176769475811682</v>
       </c>
       <c r="Q16">
-        <v>1.579355443223932</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2748354164083011</v>
+      </c>
+      <c r="R16">
+        <v>0.8824026310612716</v>
+      </c>
+      <c r="S16">
+        <v>1.451092090413155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.222646216109069</v>
+        <v>1.168018993363148</v>
       </c>
       <c r="C17">
-        <v>0.1490844015906916</v>
+        <v>0.1485971778747199</v>
       </c>
       <c r="D17">
-        <v>0.1290157313795106</v>
+        <v>0.1313191446015907</v>
       </c>
       <c r="E17">
-        <v>0.06086773842494253</v>
+        <v>0.0581769349956307</v>
       </c>
       <c r="F17">
-        <v>0.6802722439523805</v>
+        <v>0.6373909913516229</v>
       </c>
       <c r="G17">
-        <v>0.4151459837572418</v>
+        <v>0.3775206406809559</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.003686312488921928</v>
+        <v>0.003323360352154303</v>
       </c>
       <c r="J17">
-        <v>0.3555982168347285</v>
+        <v>0.3497491360933864</v>
       </c>
       <c r="K17">
-        <v>0.3875454813363284</v>
+        <v>0.3491554498580314</v>
       </c>
       <c r="L17">
-        <v>0.06424774798875266</v>
+        <v>0.151117567481295</v>
       </c>
       <c r="M17">
-        <v>1.084428676121945</v>
+        <v>0.11464584180559</v>
       </c>
       <c r="N17">
-        <v>0.1969114188763399</v>
+        <v>0.06008954168973535</v>
       </c>
       <c r="O17">
-        <v>0.2678302729359601</v>
+        <v>1.085147812500708</v>
       </c>
       <c r="P17">
-        <v>0.909503800060822</v>
+        <v>0.2113147920988609</v>
       </c>
       <c r="Q17">
-        <v>1.571802428893619</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2644170996014559</v>
+      </c>
+      <c r="R17">
+        <v>0.8925028670127482</v>
+      </c>
+      <c r="S17">
+        <v>1.45463150980882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.19408218950619</v>
+        <v>1.142092071812073</v>
       </c>
       <c r="C18">
-        <v>0.1470965094237329</v>
+        <v>0.1461280264186797</v>
       </c>
       <c r="D18">
-        <v>0.1266619795502635</v>
+        <v>0.1286394491573617</v>
       </c>
       <c r="E18">
-        <v>0.06064095170293093</v>
+        <v>0.05793482909069958</v>
       </c>
       <c r="F18">
-        <v>0.6775540941751785</v>
+        <v>0.6364948872047265</v>
       </c>
       <c r="G18">
-        <v>0.413869258931598</v>
+        <v>0.3721522864979505</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.003708603044923819</v>
+        <v>0.003226483396318258</v>
       </c>
       <c r="J18">
-        <v>0.356072823678673</v>
+        <v>0.3563128548631198</v>
       </c>
       <c r="K18">
-        <v>0.3886127842868454</v>
+        <v>0.3510632717401201</v>
       </c>
       <c r="L18">
-        <v>0.06453794422085846</v>
+        <v>0.1526046549333362</v>
       </c>
       <c r="M18">
-        <v>1.057970736442684</v>
+        <v>0.1143191840795446</v>
       </c>
       <c r="N18">
-        <v>0.1932079209623865</v>
+        <v>0.06036851111842001</v>
       </c>
       <c r="O18">
-        <v>0.2616625901091147</v>
+        <v>1.059984198268211</v>
       </c>
       <c r="P18">
-        <v>0.9166250302478005</v>
+        <v>0.207307645851813</v>
       </c>
       <c r="Q18">
-        <v>1.570024081211969</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2584731701592382</v>
+      </c>
+      <c r="R18">
+        <v>0.898292681260159</v>
+      </c>
+      <c r="S18">
+        <v>1.457792767186874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.183106035621478</v>
+        <v>1.131975972264513</v>
       </c>
       <c r="C19">
-        <v>0.1467526205667511</v>
+        <v>0.1456712494534287</v>
       </c>
       <c r="D19">
-        <v>0.12590360866119</v>
+        <v>0.127789179334286</v>
       </c>
       <c r="E19">
-        <v>0.06052891397887983</v>
+        <v>0.05782126237602014</v>
       </c>
       <c r="F19">
-        <v>0.6759603672203127</v>
+        <v>0.6354577181906933</v>
       </c>
       <c r="G19">
-        <v>0.4128735395753509</v>
+        <v>0.3701014930316191</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.003928844423414013</v>
+        <v>0.003444367921928482</v>
       </c>
       <c r="J19">
-        <v>0.3559474587595162</v>
+        <v>0.3578831024167641</v>
       </c>
       <c r="K19">
-        <v>0.3884562939986971</v>
+        <v>0.3511933423703439</v>
       </c>
       <c r="L19">
-        <v>0.06460588177406201</v>
+        <v>0.1529185356350649</v>
       </c>
       <c r="M19">
-        <v>1.049034142328054</v>
+        <v>0.1140171108954533</v>
       </c>
       <c r="N19">
-        <v>0.1922202924558789</v>
+        <v>0.06043668304654481</v>
       </c>
       <c r="O19">
-        <v>0.2595032635006511</v>
+        <v>1.051406304127568</v>
       </c>
       <c r="P19">
-        <v>0.9191544426986162</v>
+        <v>0.2062268325852159</v>
       </c>
       <c r="Q19">
-        <v>1.567628059872888</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2563805283271705</v>
+      </c>
+      <c r="R19">
+        <v>0.9004591209528563</v>
+      </c>
+      <c r="S19">
+        <v>1.4569127136661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.22837729440289</v>
+        <v>1.173233191199671</v>
       </c>
       <c r="C20">
-        <v>0.1493401392306808</v>
+        <v>0.1489098428835831</v>
       </c>
       <c r="D20">
-        <v>0.129439407017685</v>
+        <v>0.1318113484033603</v>
       </c>
       <c r="E20">
-        <v>0.06092236046136712</v>
+        <v>0.0582356812670124</v>
       </c>
       <c r="F20">
-        <v>0.6810163783997112</v>
+        <v>0.6377539469769715</v>
       </c>
       <c r="G20">
-        <v>0.4155827910507099</v>
+        <v>0.378861492337137</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.003612078258750984</v>
+        <v>0.003257495739556582</v>
       </c>
       <c r="J20">
-        <v>0.3556130664139303</v>
+        <v>0.3484597732615171</v>
       </c>
       <c r="K20">
-        <v>0.3875302073619125</v>
+        <v>0.3489539569761462</v>
       </c>
       <c r="L20">
-        <v>0.06420479706702675</v>
+        <v>0.1508992394754589</v>
       </c>
       <c r="M20">
-        <v>1.089318679305791</v>
+        <v>0.1147678885266679</v>
       </c>
       <c r="N20">
-        <v>0.1975088660961575</v>
+        <v>0.06004705238419472</v>
       </c>
       <c r="O20">
-        <v>0.2689969366348492</v>
+        <v>1.089758736277304</v>
       </c>
       <c r="P20">
-        <v>0.9081568343082722</v>
+        <v>0.2119632805847402</v>
       </c>
       <c r="Q20">
-        <v>1.572771714369082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2655383206262556</v>
+      </c>
+      <c r="R20">
+        <v>0.8913879470522339</v>
+      </c>
+      <c r="S20">
+        <v>1.454553488466161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.38189164418327</v>
+        <v>1.308417847616482</v>
       </c>
       <c r="C21">
-        <v>0.1576982638530424</v>
+        <v>0.1575368387886869</v>
       </c>
       <c r="D21">
-        <v>0.1413832994499273</v>
+        <v>0.1471999571937204</v>
       </c>
       <c r="E21">
-        <v>0.06233861739646862</v>
+        <v>0.0600440394657813</v>
       </c>
       <c r="F21">
-        <v>0.699768215044152</v>
+        <v>0.6393813281325365</v>
       </c>
       <c r="G21">
-        <v>0.4260606253149319</v>
+        <v>0.4439521049172868</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.002620227945833165</v>
+        <v>0.002614148659247917</v>
       </c>
       <c r="J21">
-        <v>0.3552640860480665</v>
+        <v>0.288342725532118</v>
       </c>
       <c r="K21">
-        <v>0.3855036736992972</v>
+        <v>0.3388902799971838</v>
       </c>
       <c r="L21">
-        <v>0.06292899245698624</v>
+        <v>0.1434151422664698</v>
       </c>
       <c r="M21">
-        <v>1.224714067080953</v>
+        <v>0.1166589964681464</v>
       </c>
       <c r="N21">
-        <v>0.2152375140820055</v>
+        <v>0.05878286915795261</v>
       </c>
       <c r="O21">
-        <v>0.3010574735696565</v>
+        <v>1.210485691808458</v>
       </c>
       <c r="P21">
-        <v>0.8721157599927487</v>
+        <v>0.230928627611263</v>
       </c>
       <c r="Q21">
-        <v>1.594582510713479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.2956005465819089</v>
+      </c>
+      <c r="R21">
+        <v>0.8638699844700142</v>
+      </c>
+      <c r="S21">
+        <v>1.428568316315918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.484570593713272</v>
+        <v>1.398225264996938</v>
       </c>
       <c r="C22">
-        <v>0.1625934076482736</v>
+        <v>0.1623376676393065</v>
       </c>
       <c r="D22">
-        <v>0.1492055127239666</v>
+        <v>0.1575646507107109</v>
       </c>
       <c r="E22">
-        <v>0.06337016975324516</v>
+        <v>0.06138315146787576</v>
       </c>
       <c r="F22">
-        <v>0.7140300729711839</v>
+        <v>0.6412468719479705</v>
       </c>
       <c r="G22">
-        <v>0.4345102079781924</v>
+        <v>0.4963309851740263</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.001881271978226629</v>
+        <v>0.00198124121780463</v>
       </c>
       <c r="J22">
-        <v>0.3559028304572109</v>
+        <v>0.2562109237064725</v>
       </c>
       <c r="K22">
-        <v>0.3855012771376423</v>
+        <v>0.3330253993954777</v>
       </c>
       <c r="L22">
-        <v>0.06217742106706314</v>
+        <v>0.1389550308138237</v>
       </c>
       <c r="M22">
-        <v>1.31324457774241</v>
+        <v>0.118440853614505</v>
       </c>
       <c r="N22">
-        <v>0.2265511567129721</v>
+        <v>0.05803035439389781</v>
       </c>
       <c r="O22">
-        <v>0.3222110479856468</v>
+        <v>1.288240515160538</v>
       </c>
       <c r="P22">
-        <v>0.8491214406307179</v>
+        <v>0.2430071302562595</v>
       </c>
       <c r="Q22">
-        <v>1.614041865137921</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3152985380241731</v>
+      </c>
+      <c r="R22">
+        <v>0.846850088169905</v>
+      </c>
+      <c r="S22">
+        <v>1.413444415012876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.43206399348324</v>
+        <v>1.353491606378896</v>
       </c>
       <c r="C23">
-        <v>0.1593999256650349</v>
+        <v>0.1594543191665139</v>
       </c>
       <c r="D23">
-        <v>0.144958234983406</v>
+        <v>0.1515867463265295</v>
       </c>
       <c r="E23">
-        <v>0.062878590991712</v>
+        <v>0.06065928818125066</v>
       </c>
       <c r="F23">
-        <v>0.707543787703969</v>
+        <v>0.6428759523846139</v>
       </c>
       <c r="G23">
-        <v>0.4309465609308916</v>
+        <v>0.4618908080400388</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001933246132447053</v>
+        <v>0.001917873167256445</v>
       </c>
       <c r="J23">
-        <v>0.3560377360798554</v>
+        <v>0.2776950750925238</v>
       </c>
       <c r="K23">
-        <v>0.3863798140565677</v>
+        <v>0.3376406378078194</v>
       </c>
       <c r="L23">
-        <v>0.06262895272687885</v>
+        <v>0.1418091085951971</v>
       </c>
       <c r="M23">
-        <v>1.265951102803598</v>
+        <v>0.1180980788857759</v>
       </c>
       <c r="N23">
-        <v>0.220035143528591</v>
+        <v>0.05847721728502364</v>
       </c>
       <c r="O23">
-        <v>0.3110418215954596</v>
+        <v>1.248331705187354</v>
       </c>
       <c r="P23">
-        <v>0.8611102280213707</v>
+        <v>0.2361197272092568</v>
       </c>
       <c r="Q23">
-        <v>1.606658973832822</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3050787754729782</v>
+      </c>
+      <c r="R23">
+        <v>0.8550262243558571</v>
+      </c>
+      <c r="S23">
+        <v>1.428753524691714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.229366811062903</v>
+        <v>1.174412172405368</v>
       </c>
       <c r="C24">
-        <v>0.1483246486100356</v>
+        <v>0.1476821639903676</v>
       </c>
       <c r="D24">
-        <v>0.1291461858803729</v>
+        <v>0.1314843111052681</v>
       </c>
       <c r="E24">
-        <v>0.06099640569773079</v>
+        <v>0.05830624371114901</v>
       </c>
       <c r="F24">
-        <v>0.6825645641756068</v>
+        <v>0.639422835480957</v>
       </c>
       <c r="G24">
-        <v>0.4169585770029514</v>
+        <v>0.379785589392128</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.003106761063274455</v>
+        <v>0.002648843087976971</v>
       </c>
       <c r="J24">
-        <v>0.3564076315641884</v>
+        <v>0.3498022477130363</v>
       </c>
       <c r="K24">
-        <v>0.3889767117823233</v>
+        <v>0.3503758728272146</v>
       </c>
       <c r="L24">
-        <v>0.06430872344830263</v>
+        <v>0.1514844860451134</v>
       </c>
       <c r="M24">
-        <v>1.087051110661037</v>
+        <v>0.1152310284175257</v>
       </c>
       <c r="N24">
-        <v>0.1965186323842545</v>
+        <v>0.06013876699091192</v>
       </c>
       <c r="O24">
-        <v>0.2686676858867898</v>
+        <v>1.087614966227761</v>
       </c>
       <c r="P24">
-        <v>0.9084762730439095</v>
+        <v>0.2109173553341037</v>
       </c>
       <c r="Q24">
-        <v>1.577347431835236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2652308698004191</v>
+      </c>
+      <c r="R24">
+        <v>0.8914054529052109</v>
+      </c>
+      <c r="S24">
+        <v>1.459401309585118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.010482564376417</v>
+        <v>0.9702209410658895</v>
       </c>
       <c r="C25">
-        <v>0.1364814771398599</v>
+        <v>0.1311153636104194</v>
       </c>
       <c r="D25">
-        <v>0.1124212795612038</v>
+        <v>0.11407444265339</v>
       </c>
       <c r="E25">
-        <v>0.05913579195091323</v>
+        <v>0.05663107034742865</v>
       </c>
       <c r="F25">
-        <v>0.6587174750324465</v>
+        <v>0.6214146746471485</v>
       </c>
       <c r="G25">
-        <v>0.4041436364807822</v>
+        <v>0.3664134167968314</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.005329450871528252</v>
+        <v>0.004263027147974441</v>
       </c>
       <c r="J25">
-        <v>0.3582061797009715</v>
+        <v>0.3566796687499121</v>
       </c>
       <c r="K25">
-        <v>0.3933279459739829</v>
+        <v>0.3576192560041846</v>
       </c>
       <c r="L25">
-        <v>0.06623855426383596</v>
+        <v>0.1599735383518563</v>
       </c>
       <c r="M25">
-        <v>0.8942454442683072</v>
+        <v>0.111064556903159</v>
       </c>
       <c r="N25">
-        <v>0.1719516424377332</v>
+        <v>0.06198995310042665</v>
       </c>
       <c r="O25">
-        <v>0.2232069908918888</v>
+        <v>0.8964720471910255</v>
       </c>
       <c r="P25">
-        <v>0.9628121420190823</v>
+        <v>0.1840273293378587</v>
       </c>
       <c r="Q25">
-        <v>1.55345272349652</v>
+        <v>0.2205697431504419</v>
+      </c>
+      <c r="R25">
+        <v>0.9382458628840133</v>
+      </c>
+      <c r="S25">
+        <v>1.450094928539755</v>
       </c>
     </row>
   </sheetData>
